--- a/TestCase/TestCaseSHC.xlsx
+++ b/TestCase/TestCaseSHC.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\piseumo\Desktop\Sodam\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\python\TestCase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2290ACB5-51C6-4223-83C1-14C2D346D033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{160FD9DB-F18D-491C-BE2F-222A87585191}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A7ACD227-042E-496B-990A-C02EFE6A0BF7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{A7ACD227-042E-496B-990A-C02EFE6A0BF7}"/>
   </bookViews>
   <sheets>
     <sheet name="Testcase" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="276">
   <si>
     <t>입력값</t>
     <phoneticPr fontId="7" type="noConversion"/>
@@ -336,23 +336,11 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>결제 처리 및 관리</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>주문 관리</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>주문 통계 및 분석</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>주문 이력 관리 및 분석</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>주문 취소 및 변경 관리</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -1013,6 +1001,115 @@
   </si>
   <si>
     <t>Invalid column type 오류 발생</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문 관리</t>
+  </si>
+  <si>
+    <t>전체 주문을 조회</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>정상</t>
+  </si>
+  <si>
+    <t>SELECT * FROM online_order oo INNER JOIN Online_Cart oc ON oo.online_cart_id = oc.online_cart_id INNER JOIN Online_Cart_Product ocp ON oc.online_cart_id = ocp.online_cart_id</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체 내역이 조회</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문 취소시 취소 사유.</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>예외</t>
+  </si>
+  <si>
+    <t>INSERT INTO online_cancels (transaction_key, cancel_reason, canceled_at, cancel_amount, tax_free_amount, refundable_amount, cancel_status) VALUES ('TXN12345', NULL, NOW(), 10000, 0, 10000, 'DONE');</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"cancel_reason cannot be null" 오류 발생</t>
+  </si>
+  <si>
+    <t>월별 주문 내역을 조회</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT * FROM online_order oo INNER JOIN Online_Cart oc ON oo.online_cart_id = oc.online_cart_id INNER JOIN Online_Cart_Product ocp ON oc.online_cart_id = ocp.online_cart_id INNER JOIN online_payment op ON oo.order_id = op.order_id WHERE DATE_FORMAT(op.approved_at, '%Y-%m') = '2025-02';</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025년 2월에 주문한 내역 조회</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품별 주문 내역을 조회</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT * FROM online_order oo INNER JOIN Online_Cart oc ON oo.online_cart_id = oc.online_cart_id INNER JOIN Online_Cart_Product ocp ON oc.online_cart_id = ocp.online_cart_id INNER JOIN Warehouse_Inventory wi ON ocp.inventory_id = wi.inventory_id INNER JOIN Product p ON wi.product_id = p.product_id WHERE p.product_id = ?;</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객이 주문한 상품이면 내역 조회 / 없을 시 에러 발생</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객별 주문 내역을 조회</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT * FROM online_order oo INNER JOIN Online_Cart oc ON oo.online_cart_id = oc.online_cart_id INNER JOIN Online_Cart_Product ocp ON oc.online_cart_id = ocp.online_cart_id WHERE oc.customer_id = ?;</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객별 주문 내역이 표시</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-OC-002</t>
+  </si>
+  <si>
+    <t>TC-OC-003</t>
+  </si>
+  <si>
+    <t>TC-OC-004</t>
+  </si>
+  <si>
+    <t>TC-OC-005</t>
+  </si>
+  <si>
+    <t>송호창</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 재고가 없을 경우 또는 상품 재고가 고객이 구매하려는 수량보다 적은경우 장바구니 목록에 추가되면 안된다</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) FROM Online_Cart_Product ocp INNER JOIN Warehouse_Inventory wi ON ocp.inventory_id = wi.inventory_id INNER JOIN Product p ON p.product_id = wi.product_id WHERE wi.quantity = 0 OR ocp.quantity &gt; wi.quantity;</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT total_price FROM Online_Cart WHERE online_cart_id = ?;
+CALL update_product_quantity(?,?,?);
+SELECT total_price FROM Online_Cart WHERE online_cart_id = ?;</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-PR-002</t>
+  </si>
+  <si>
+    <t>상품 장바구니 목록에 상품이 추가 되거나 상품 수량이 변경되면 상품 장바구니 테이블의 total_price가 최신화 되어야 한다(온라인)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>바코드 스캔을 하면 offline_cart 데이터가 생성된 후 offline_cart_product에 상품 수량이 증가하고 스캔을 찍을때마다 offline_cart의 total_price를 최신화 한다</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1286,7 +1383,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1347,6 +1444,9 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="11" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" xfId="11" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1356,8 +1456,23 @@
     <xf numFmtId="0" fontId="13" fillId="13" borderId="0" xfId="11" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" xfId="11" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="9" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -1691,9 +1806,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D89EE23-B240-4F75-A27D-E1B6020D8554}">
   <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H26" sqref="H26"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1711,10 +1826,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="21"/>
+      <c r="G1" s="22"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F2" s="5" t="s">
@@ -1741,13 +1856,13 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
       <c r="F5" s="9" t="s">
         <v>15</v>
       </c>
@@ -1812,16 +1927,16 @@
         <v>36</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>58</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="H8" s="2"/>
       <c r="J8" s="1"/>
@@ -1836,16 +1951,16 @@
         <v>36</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>58</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="H9" s="2"/>
       <c r="J9" s="1"/>
@@ -1853,23 +1968,23 @@
     </row>
     <row r="10" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E10" s="13" t="s">
         <v>57</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="H10" s="2"/>
       <c r="J10" s="1"/>
@@ -1877,23 +1992,23 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>58</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="H11" s="2"/>
       <c r="J11" s="1"/>
@@ -1901,23 +2016,23 @@
     </row>
     <row r="12" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E12" s="13" t="s">
         <v>57</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="H12" s="2"/>
       <c r="J12" s="1"/>
@@ -1925,23 +2040,23 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E13" s="13" t="s">
         <v>57</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="H13" s="2"/>
       <c r="J13" s="1"/>
@@ -1949,23 +2064,23 @@
     </row>
     <row r="14" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E14" s="12" t="s">
         <v>58</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="H14" s="2"/>
       <c r="J14" s="1"/>
@@ -1973,23 +2088,23 @@
     </row>
     <row r="15" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E15" s="13" t="s">
         <v>57</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="H15" s="2"/>
       <c r="J15" s="1"/>
@@ -1997,23 +2112,23 @@
     </row>
     <row r="16" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E16" s="13" t="s">
         <v>57</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="H16" s="2"/>
       <c r="J16" s="1"/>
@@ -2021,23 +2136,23 @@
     </row>
     <row r="17" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E17" s="12" t="s">
         <v>58</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="H17" s="2"/>
       <c r="J17" s="1"/>
@@ -2045,23 +2160,23 @@
     </row>
     <row r="18" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E18" s="13" t="s">
         <v>57</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H18" s="2"/>
       <c r="J18" s="1"/>
@@ -2069,7 +2184,7 @@
     </row>
     <row r="19" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>8</v>
@@ -2078,16 +2193,16 @@
         <v>40</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E19" s="12" t="s">
         <v>58</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="H19" s="1"/>
       <c r="J19" s="1"/>
@@ -2104,7 +2219,7 @@
         <v>41</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E20" s="12" t="s">
         <v>58</v>
@@ -2116,13 +2231,13 @@
         <v>50</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="I20" s="14" t="s">
         <v>60</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="K20" s="1"/>
     </row>
@@ -2137,7 +2252,7 @@
         <v>41</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E21" s="12" t="s">
         <v>58</v>
@@ -2149,13 +2264,13 @@
         <v>49</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="I21" s="19" t="s">
         <v>59</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="K21" s="1"/>
     </row>
@@ -2170,25 +2285,25 @@
         <v>41</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E22" s="12" t="s">
         <v>58</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>52</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="I22" s="19" t="s">
         <v>59</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="K22" s="1"/>
     </row>
@@ -2215,13 +2330,13 @@
         <v>67</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="I23" s="19" t="s">
         <v>59</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="K23" s="1"/>
     </row>
@@ -2236,25 +2351,25 @@
         <v>41</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E24" s="12" t="s">
         <v>58</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>68</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="I24" s="19" t="s">
         <v>59</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="K24" s="1"/>
     </row>
@@ -2292,7 +2407,7 @@
         <v>42</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E26" s="12" t="s">
         <v>58</v>
@@ -2315,138 +2430,138 @@
         <v>43</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E27" s="13" t="s">
         <v>57</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
     </row>
     <row r="28" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E28" s="13" t="s">
         <v>57</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
     </row>
     <row r="29" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E29" s="13" t="s">
         <v>57</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
     </row>
     <row r="30" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E30" s="13" t="s">
         <v>57</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
     </row>
     <row r="31" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A31" s="10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="2" t="s">
         <v>44</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E31" s="13" t="s">
         <v>57</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
     </row>
     <row r="32" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="2" t="s">
         <v>44</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E32" s="12" t="s">
         <v>58</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
     </row>
     <row r="33" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>9</v>
@@ -2455,7 +2570,7 @@
         <v>46</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E33" s="12" t="s">
         <v>58</v>
@@ -2471,99 +2586,99 @@
     </row>
     <row r="34" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E34" s="12" t="s">
         <v>58</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
     </row>
     <row r="35" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E35" s="13" t="s">
         <v>57</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
     </row>
     <row r="36" spans="1:11" ht="66" x14ac:dyDescent="0.3">
       <c r="A36" s="8" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E36" s="13" t="s">
         <v>57</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
     </row>
     <row r="37" spans="1:11" ht="66" x14ac:dyDescent="0.3">
       <c r="A37" s="8" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E37" s="12" t="s">
         <v>58</v>
       </c>
       <c r="F37" s="17" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
     <row r="38" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A38" s="8" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>10</v>
@@ -2572,21 +2687,21 @@
         <v>31</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E38" s="13" t="s">
         <v>57</v>
       </c>
       <c r="F38" s="17" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A39" s="8" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>10</v>
@@ -2595,21 +2710,21 @@
         <v>31</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E39" s="13" t="s">
         <v>57</v>
       </c>
       <c r="F39" s="17" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A40" s="8" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>10</v>
@@ -2618,21 +2733,21 @@
         <v>32</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E40" s="13" t="s">
         <v>57</v>
       </c>
       <c r="F40" s="17" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A41" s="8" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>10</v>
@@ -2641,21 +2756,21 @@
         <v>32</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E41" s="12" t="s">
         <v>58</v>
       </c>
       <c r="F41" s="17" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A42" s="8" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>10</v>
@@ -2664,21 +2779,21 @@
         <v>33</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E42" s="13" t="s">
         <v>57</v>
       </c>
       <c r="F42" s="17" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A43" s="8" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>10</v>
@@ -2687,21 +2802,21 @@
         <v>33</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E43" s="12" t="s">
         <v>58</v>
       </c>
       <c r="F43" s="17" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="66" x14ac:dyDescent="0.3">
       <c r="A44" s="8" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>10</v>
@@ -2710,21 +2825,21 @@
         <v>34</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E44" s="13" t="s">
         <v>57</v>
       </c>
       <c r="F44" s="17" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A45" s="8" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>10</v>
@@ -2733,19 +2848,19 @@
         <v>34</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E45" s="12" t="s">
         <v>58</v>
       </c>
       <c r="F45" s="17" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="66" x14ac:dyDescent="0.3">
       <c r="A46" s="9" t="s">
         <v>21</v>
       </c>
@@ -2753,35 +2868,103 @@
         <v>11</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A47" s="9"/>
+        <v>247</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="E46" s="24" t="s">
+        <v>249</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A47" s="9" t="s">
+        <v>265</v>
+      </c>
       <c r="B47" s="1"/>
       <c r="C47" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A48" s="9"/>
+        <v>247</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="E47" s="25" t="s">
+        <v>253</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="A48" s="9" t="s">
+        <v>266</v>
+      </c>
       <c r="B48" s="1"/>
       <c r="C48" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="9"/>
+        <v>74</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="E48" s="24" t="s">
+        <v>249</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="132" x14ac:dyDescent="0.3">
+      <c r="A49" s="9" t="s">
+        <v>267</v>
+      </c>
       <c r="B49" s="1"/>
       <c r="C49" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="9"/>
+        <v>74</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="E49" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A50" s="9" t="s">
+        <v>268</v>
+      </c>
       <c r="B50" s="1"/>
       <c r="C50" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="E50" s="24" t="s">
+        <v>249</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="33" x14ac:dyDescent="0.3">
@@ -2795,21 +2978,21 @@
         <v>47</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E51" s="12" t="s">
         <v>58</v>
       </c>
       <c r="F51" s="17" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>23</v>
@@ -2818,21 +3001,21 @@
         <v>45</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E52" s="12" t="s">
         <v>58</v>
       </c>
       <c r="F52" s="17" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="132" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>23</v>
@@ -2841,39 +3024,39 @@
         <v>48</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E53" s="13" t="s">
         <v>57</v>
       </c>
       <c r="F53" s="17" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E54" s="12" t="s">
         <v>58</v>
       </c>
       <c r="F54" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
@@ -2963,34 +3146,34 @@
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>160</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>225</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>163</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>62</v>
       </c>
       <c r="J2" s="16" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="33" x14ac:dyDescent="0.3">
@@ -2998,19 +3181,19 @@
         <v>20</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>54</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E3" s="18">
         <v>45727.839618055557</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>60</v>
@@ -3019,10 +3202,10 @@
         <v>50</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="J3" s="17" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="33" x14ac:dyDescent="0.3">
@@ -3030,19 +3213,19 @@
         <v>20</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>54</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E4" s="18">
         <v>45727.854421296295</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G4" s="15" t="s">
         <v>59</v>
@@ -3051,10 +3234,10 @@
         <v>50</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J4" s="17" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -3087,54 +3270,54 @@
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>160</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>225</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>163</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>62</v>
       </c>
       <c r="J2" s="16" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="23" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>54</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E3" s="18">
         <v>45727.839618055557</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>60</v>
@@ -3143,28 +3326,28 @@
         <v>50</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="J3" s="17" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A4" s="22"/>
+      <c r="A4" s="23"/>
       <c r="B4" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>54</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E4" s="18">
         <v>45727.854421296295</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G4" s="15" t="s">
         <v>59</v>
@@ -3173,30 +3356,30 @@
         <v>50</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J4" s="17" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="20" t="s">
         <v>24</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E5" s="18">
         <v>45727.906504629631</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G5" s="15" t="s">
         <v>59</v>
@@ -3205,27 +3388,27 @@
         <v>49</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="20" t="s">
         <v>25</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E6" s="18">
         <v>45727.901932870373</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G6" s="15" t="s">
         <v>59</v>
@@ -3234,12 +3417,12 @@
         <v>52</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A7" s="23" t="s">
-        <v>247</v>
+      <c r="A7" s="20" t="s">
+        <v>244</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>65</v>
@@ -3248,13 +3431,13 @@
         <v>66</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E7" s="18">
         <v>45727.907893518517</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G7" s="15" t="s">
         <v>59</v>
@@ -3263,36 +3446,36 @@
         <v>67</v>
       </c>
       <c r="I7" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="A8" s="20" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A8" s="23" t="s">
-        <v>248</v>
-      </c>
       <c r="B8" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E8" s="18">
         <v>45727.910671296297</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G8" s="15" t="s">
         <v>59</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="J8" s="2"/>
     </row>
@@ -3336,54 +3519,54 @@
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>160</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>225</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>163</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>62</v>
       </c>
       <c r="J2" s="16" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="66" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E3" s="18">
         <v>45727.870196759257</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G3" s="15" t="s">
         <v>59</v>
@@ -3392,56 +3575,56 @@
         <v>50</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="J3" s="17" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="66" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E4" s="18">
         <v>45727.879166666666</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G4" s="14" t="s">
         <v>60</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="J4" s="17" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="66" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E5" s="18">
         <v>45727.884097222224</v>
@@ -3451,133 +3634,133 @@
         <v>59</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:10" ht="33" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E6" s="18">
         <v>45727.881423611114</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G6" s="15" t="s">
         <v>59</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="33" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E7" s="18">
         <v>45727.882337962961</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G7" s="15" t="s">
         <v>59</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="33" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E8" s="18">
         <v>45727.883425925924</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G8" s="15" t="s">
         <v>59</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="33" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E9" s="18">
         <v>45727.884097222224</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G9" s="15" t="s">
         <v>59</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C10" s="17"/>
       <c r="D10" s="2" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E10" s="18">
         <v>45727.884097222224</v>
@@ -3586,11 +3769,11 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B11" s="2"/>
       <c r="D11" s="2" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E11" s="18">
         <v>45728.884097222224</v>
@@ -3599,10 +3782,10 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E12" s="18">
         <v>45729.884097222224</v>
@@ -3611,10 +3794,10 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E13" s="18">
         <v>45730.884097222224</v>
@@ -3629,10 +3812,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{444E93D6-ED11-4590-A7D7-036BA4610650}">
-  <dimension ref="A2:J5"/>
+  <dimension ref="A2:J10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3651,104 +3834,187 @@
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>160</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>225</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>163</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>62</v>
       </c>
       <c r="J2" s="16" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="99" x14ac:dyDescent="0.3">
+      <c r="A3" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="E3" s="27">
+        <v>45727.839618055557</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="G3" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="E3" s="18">
-        <v>45727.839618055557</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="J3" s="17" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
-        <v>20</v>
+    <row r="4" spans="1:10" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="26" t="s">
+        <v>273</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>91</v>
+        <v>274</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>54</v>
+        <v>272</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="E4" s="18">
+        <v>269</v>
+      </c>
+      <c r="E4" s="27">
         <v>45727.854421296295</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="G4" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="G4" s="29" t="s">
         <v>59</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>50</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="J4" s="17" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E5" t="s">
-        <v>236</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="99" x14ac:dyDescent="0.3">
+      <c r="A5" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
@@ -3780,34 +4046,34 @@
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>160</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>225</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>163</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>62</v>
       </c>
       <c r="J2" s="16" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="33" x14ac:dyDescent="0.3">
@@ -3815,19 +4081,19 @@
         <v>20</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>54</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E3" s="18">
         <v>45727.839618055557</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>60</v>
@@ -3836,10 +4102,10 @@
         <v>50</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="J3" s="17" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="33" x14ac:dyDescent="0.3">
@@ -3847,19 +4113,19 @@
         <v>20</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>54</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E4" s="18">
         <v>45727.854421296295</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G4" s="15" t="s">
         <v>59</v>
@@ -3868,15 +4134,15 @@
         <v>50</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J4" s="17" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E5" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>

--- a/TestCase/TestCaseSHC.xlsx
+++ b/TestCase/TestCaseSHC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\python\TestCase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{160FD9DB-F18D-491C-BE2F-222A87585191}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA8CDD38-8B8F-450A-96A2-0D4FB0E19AA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{A7ACD227-042E-496B-990A-C02EFE6A0BF7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{A7ACD227-042E-496B-990A-C02EFE6A0BF7}"/>
   </bookViews>
   <sheets>
     <sheet name="Testcase" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,8 @@
     <sheet name="Product" sheetId="20" r:id="rId3"/>
     <sheet name="Store" sheetId="21" r:id="rId4"/>
     <sheet name="Payment" sheetId="22" r:id="rId5"/>
-    <sheet name="Delivery" sheetId="23" r:id="rId6"/>
+    <sheet name="Payment_Link" sheetId="24" r:id="rId6"/>
+    <sheet name="Delivery" sheetId="23" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Testcase!$A$7:$N$7</definedName>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="328">
   <si>
     <t>입력값</t>
     <phoneticPr fontId="7" type="noConversion"/>
@@ -1109,7 +1110,1131 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>바코드 스캔을 하면 offline_cart 데이터가 생성된 후 offline_cart_product에 상품 수량이 증가하고 스캔을 찍을때마다 offline_cart의 total_price를 최신화 한다</t>
+    <t>1.437 sec</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>바코드 스캔을 하면 offline_cart 데이터가 생성된 후 offline_cart_product에 상품 수량이 증가하고 스캔을 찍을때마다 offline_cart의 total_price를 최신화 한다(오프라인)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>DELIMITER //
+CREATE PROCEDURE process_offline_cart(
+    IN customerId BIGINT,
+    IN productId BIGINT,
+    IN storeId BIGINT,
+    IN quantityChange INT
+)
+BEGIN
+    DECLARE cartId BIGINT;
+    DECLARE productPrice INT;
+    DECLARE existingQuantity INT;
+    DECLARE inventoryId BIGINT;
+    -- 트랜잭션 시작
+    START TRANSACTION;
+    -- 1. 고객의 장바구니 존재 여부 확인
+    SELECT offline_cart_id INTO cartId
+    FROM offline_cart
+    WHERE c_id = customerId
+    LIMIT 1;
+    -- 2. 장바구니가 없으면 생성
+    IF cartId IS NULL THEN
+        INSERT INTO offline_cart (c_id, total_price)
+        VALUES (customerId, 0);
+        SET cartId = LAST_INSERT_ID();
+    END IF;
+    -- 3. inventory_id 가져오기 (store_inventory에서)
+    SELECT inventory_id INTO inventoryId
+    FROM store_inventory
+    WHERE product_id = productId AND store_id = storeId;
+    -- 4. 상품의 최종 가격 가져오기 (product_price에서)
+    SELECT final_price INTO productPrice
+    FROM product_price
+    WHERE product_id = productId
+    ORDER BY date_time DESC
+    LIMIT 1;
+    -- 5. 장바구니에 상품이 있는지 확인
+    SELECT quantity INTO existingQuantity
+    FROM offline_cart_product
+    WHERE offline_cart_id = cartId AND inventory_id = inventoryId;
+    -- 6. 상품이 이미 있으면 수량 증가, 없으면 새로 추가
+    IF existingQuantity IS NOT NULL THEN
+        UPDATE offline_cart_product
+        SET quantity = quantity + quantityChange
+        WHERE offline_cart_id = cartId AND inventory_id = inventoryId;
+    ELSE
+        INSERT INTO offline_cart_product (offline_cart_id, inventory_id, quantity, price)
+        VALUES (cartId, inventoryId, quantityChange, productPrice);
+    END IF;
+    -- 7. total_price 최신화
+    UPDATE offline_cart
+    SET total_price = (
+        SELECT COALESCE(SUM(quantity * price), 0)
+        FROM offline_cart_product
+        WHERE offline_cart_id = cartId
+    )
+    WHERE offline_cart_id = cartId;
+    -- 트랜잭션 커밋
+    COMMIT;
+END;
+//
+DELIMITER ;</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제 시 포인트를 사용하면 결제 완료 후 고객포인트 테이블의 포인트를 최신화 해야한다</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제 취소 시 결제 취소 테이블에 데이터를 추가하고 결제 테이블을 업데이트 해야한다</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>문서 
+링크</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로시저/트리거 ID</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>속성</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로시저/트리거 이름</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>목적</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>상세내용</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>생성날짜</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>PROCEDURE</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_online_cart</t>
+  </si>
+  <si>
+    <t>put_in_cart</t>
+  </si>
+  <si>
+    <t>사용자의 장바구니를 생성하고 주문을 생성한다</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>생성된 장바구니에 구매하려는 상품을 추가한다</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>DELIMITER //
+CREATE PROCEDURE create_online_cart(
+IN customerId BIGINT,
+IN receiverName VARCHAR(30),
+IN addressId BIGINT,
+IN receiverAddress VARCHAR(255),
+OUT newCartId BIGINT,
+OUT newOrderId BIGINT
+)
+BEGIN
+	DECLARE cartId BIGINT;
+	DECLARE pointId BIGINT;
+	DECLARE orderId BIGINT;
+	DECLARE customerName VARCHAR(255);
+	DECLARE customerAddress VARCHAR(255);
+	DECLARE city VARCHAR(20);
+	DECLARE district VARCHAR(20);
+	DECLARE address VARCHAR(50);
+	DECLARE address2 VARCHAR(50);
+	DECLARE postal_code VARCHAR(10);
+	START TRANSACTION;
+	INSERT INTO online_cart (
+		customer_id,
+		total_price
+	) VALUES (
+		customerId,
+		0
+	);
+	SET cartId = LAST_INSERT_ID();
+	SET newCartId = cartId;
+	SELECT point_id INTO pointID
+	FROM `point`
+	WHERE customer_id = customerId
+	ORDER BY date_time desc
+	LIMIT 1;
+	IF receiverName IS NULL THEN
+		SELECT `name` INTO customerName
+		FROM customer
+		WHERE customer_id = customerId;
+	ELSE
+		SET customerName = receiverName;
+	END IF;
+	IF addressId IS NOT NULL THEN
+		SELECT city, district, address, address2, postal_code
+		INTO city, district, address, address2, postal_code
+		FROM Delivery_Address
+		WHERE address_id = addressId;
+		SET customerAddress = CONCAT(city, ' ', district, ' ', address, ' ', address2, ' ', postal_code);
+	ELSE
+		SET customerAddress = receiverAddress;
+		SET city = SUBSTRING_INDEX(receiverAddress, ' ', 1);
+		SET district = SUBSTRING_INDEX(SUBSTRING_INDEX(receiverAddress, ' ', 2), ' ', -1);
+		SET address = SUBSTRING_INDEX(SUBSTRING_INDEX(receiverAddress, ' ', 4), ' ', -2);
+		SET address2 = SUBSTRING_INDEX(SUBSTRING_INDEX(receiverAddress, ' ', 6), ' ', -3);
+		SET postal_code = SUBSTRING_INDEX(receiverAddress, ' ', -1);
+		INSERT INTO Delivery_Address (
+			customer_id,
+			city,
+			district,
+			address,
+			address2,
+			postal_code,
+			last_update
+		) VALUES (
+			customerId,
+			city,
+			district,
+			address,
+			address2,
+			postal_code,
+			NOW()
+		);
+	END IF;
+	INSERT INTO online_order (
+		online_cart_id,
+		point_id,
+		receiver_name,
+		receiver_address,
+		`status`
+	) VALUES (
+		cartId,
+		pointID,
+		customerName,
+		customerAddress,
+		'주문 접수'
+	);
+	SET orderId = LAST_INSERT_ID();
+	SET newOrderId = orderId;
+	COMMIT;
+END //
+DELIMITER ;</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>DELIMITER //
+CREATE PROCEDURE put_in_cart(
+IN cartId BIGINT,
+IN productId BIGINT,
+IN quantity INT
+)
+BEGIN
+	DECLARE inventoryId BIGINT;
+	DECLARE price INT;
+	DECLARE inventoryQuantity INT;
+	DECLARE cartTotalPrice INT;
+	DECLARE increasePrice INT;
+	START TRANSACTION;
+	-- 재고 확인
+	SELECT inventory_id, quantity INTO inventoryId, inventoryQuantity
+	FROM Warehouse_Inventory
+	WHERE product_id = productId
+	FOR UPDATE;
+	-- 가격 조회
+	SELECT final_price INTO price
+	FROM product_price
+	WHERE product_id = productId
+	ORDER BY date_time desc
+	LIMIT 1;
+	-- 장바구니 현재  총 금액 조회
+	SELECT total_price INTO cartTotalPrice
+	FROM Online_Cart
+	WHERE online_cart_id = cartId
+	FOR UPDATE;
+	IF inventoryQuantity &gt;= quantity THEN
+		INSERT INTO online_cart_product (
+			online_cart_id,
+			inventory_id,
+			quantity,
+			price
+		) VALUES (
+			cartId,
+			inventoryId,
+			quantity,
+			price
+		);
+		SET increasePrice = quantity * price;
+		UPDATE Online_Cart
+		SET total_price = cartTotalPrice + increasePrice
+		WHERE online_cart_id = cartId;
+		COMMIT;
+	ELSE
+		SIGNAL SQLSTATE '45000'
+		SET MESSAGE_TEXT = '재고가 부족합니다';
+		ROLLBACK;
+	END IF;
+END //
+DELIMITER ;</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>DELIMITER //
+CREATE PROCEDURE online_pay_card(
+IN usePoint INT,
+IN orderId BIGINT,
+IN method VARCHAR(20),
+IN issuerCode VARCHAR(2),
+IN acquirerCode VARCHAR(2),
+IN cardNum VARCHAR(255),
+IN installmentPlan INT
+)
+BEGIN
+	DECLARE totalPrice INT;
+	DECLARE orderName VARCHAR(255);
+	DECLARE lastTransactionKey VARCHAR(64);
+	DECLARE paymentKey VARCHAR(200);
+	DECLARE totalAmount INT;
+	DECLARE vatAmount DECIMAL(10,2);
+	DECLARE suppliedAmount DECIMAL(10,2);
+	DECLARE approveNo VARCHAR(8);
+	DECLARE cardType VARCHAR(20);
+	DECLARE ownerType VARCHAR(20);
+	DECLARE paymentId BIGINT;
+	DECLARE CONTINUE HANDLER FOR SQLEXCEPTION
+	BEGIN
+		ROLLBACK;
+		SIGNAL SQLSTATE '45000'
+		SET MESSAGE_TEXT = '포인트 차감 중 오류 발생';
+	END;
+	START TRANSACTION;
+	SELECT total_price INTO totalPrice
+	FROM online_order oo
+	INNER JOIN online_cart oc ON oo.online_cart_id = oc.online_cart_id
+	WHERE oo.order_id = orderId;
+   -- 랜덤 lastTransactionKey 생성 (영어 대소문자 + 숫자, 32~64자)
+   SET lastTransactionKey = (
+      SELECT SUBSTRING(
+         GROUP_CONCAT(CHAR(FLOOR(RAND() * 62) + 
+         CASE 
+            WHEN FLOOR(RAND() * 3) = 0 THEN 48  -- 숫자 (0-9)
+            WHEN FLOOR(RAND() * 3) = 1 THEN 65  -- 대문자 (A-Z)
+            ELSE 97  -- 소문자 (a-z)
+         END) SEPARATOR ''), 
+         1, FLOOR(RAND() * (64 - 32 + 1)) + 32
+      )
+   );
+	-- 랜덤 paymentKey 생성 (영어 대소문자 + 숫자, 20~200자)
+   SET paymentKey = (
+      SELECT SUBSTRING(
+         GROUP_CONCAT(CHAR(FLOOR(RAND() * 62) + 
+         CASE 
+            WHEN FLOOR(RAND() * 3) = 0 THEN 48  -- 숫자 (0-9)
+            WHEN FLOOR(RAND() * 3) = 1 THEN 65  -- 대문자 (A-Z)
+            ELSE 97  -- 소문자 (a-z)
+         END) SEPARATOR ''), 
+         1, FLOOR(RAND() * (200 - 20 + 1)) + 20
+      )
+   );
+   SELECT CONCAT(p.`name`,' 외',(totalCount - 1), '개') INTO orderName
+   FROM (
+   	SELECT p.`name`
+		FROM online_order oo
+		INNER JOIN online_cart oc ON oo.online_cart_id = oc.online_cart_id
+		INNER JOIN online_cart_product ocp ON oc.online_cart_id = ocp.online_cart_id
+		INNER JOIN warehouse_inventory wi ON ocp.inventory_id = wi.inventory_id
+		INNER JOIN product p ON wi.product_id = p.product_id
+		WHERE oo.order_id = orderId
+		ORDER BY ocp.cart_product_id
+		LIMIT 1
+	) AS firstProduct,
+	(
+		SELECT COUNT(*) AS totalCount
+		FROM online_order oo
+		INNER JOIN online_cart oc ON oo.online_cart_id = oc.online_cart_id
+		INNER JOIN online_cart_product ocp ON oc.online_cart_id = ocp.online_cart_id
+		INNER JOIN warehouse_inventory wi ON ocp.inventory_id = wi.inventory_id
+		INNER JOIN product p ON wi.product_id = p.product_id
+		WHERE oo.order_id = orderId
+	) AS productCount;
+   SET totalAmount = (totalPrice - usePoint);
+   SET vatAmount = ROUND(totalAmount / 11, 0);
+   SET suppliedAmount = totalAmount - vatAmount;
+	INSERT INTO online_payment (
+		last_transaction_key,
+		payment_key,
+		order_id,
+		order_name,
+		`status`,
+		requested_at,
+		is_partial_cancelable,
+		total_amount,
+		balance_amount,
+		supplied_amount,
+		vat,
+		method
+	) VALUES (
+		lastTransactionKey,
+		paymentKey,
+		orderId,
+		orderName,
+		'READY',
+		NOW(),
+		FLOOR(RAND() * 2),
+		totalAmount,
+		totalAmount,
+		suppliedAmount,
+		vatAmount,
+		method
+	);
+	SET paymentId = LAST_INSERT_ID();
+	SET approveNo = LPAD(FLOOR(RAND() * 100000000), 8, '0');
+	SET cardType = CASE 
+   	WHEN FLOOR(RAND() * 3) = 0 THEN '신용카드'
+   	WHEN FLOOR(RAND() * 3) = 1 THEN '체크카드'
+   	ELSE '기프트카드'
+	END;
+	SET ownerType = CASE
+		WHEN cardType = '기프트카드' THEN '개인'
+		WHEN cardType IN ('신용카드', '체크카드') THEN
+			CASE
+				WHEN FLOOR(RAND() * 2) = 0 THEN '개인'
+				ELSE '법인'
+			END
+	END;
+	INSERT INTO online_card (
+		amount,
+		issuer_code,
+		acquirer_code,
+		`number`,
+		installment_plan_months,
+		approve_no,
+		card_type,
+		owner_type,
+		acquire_status
+	) VALUES (
+		totalAmount,
+		issuerCode,
+		acquirerCode,
+		CONCAT(LEFT(cardNum, 8), '****', SUBSTRING(cardNum, -4, 3), '*'),
+		installmentPlan,
+		approveNo,
+		cardType,
+		ownerType,
+		'COMPLETED'
+	);
+	UPDATE online_payment
+	SET card_id = LAST_INSERT_ID()
+	WHERE online_payment_id = paymentId;
+	CALL point_deduction(totalAmount, usePoint, orderId);
+	CALL point_earning(totalAmount, orderId);
+	COMMIT;
+END //
+DELIMITER ;</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>online_pay_card</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>온라인에서 카드 결제 시 결제 관련 데이터와 카드 관련 데이터를 입력한다</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>online_pay_easy_pay</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>온라인에서 간편 결제 시 결제 관련 데이터와 간편 결제 관련 데이터를 입력한다</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>DELIMITER //
+CREATE PROCEDURE online_pay_easy_pay(
+IN usePoint INT,
+IN orderId BIGINT,
+IN method VARCHAR(20),
+IN provider VARCHAR(255),
+IN discountAmount INT
+)
+BEGIN
+	DECLARE totalPrice INT;
+	DECLARE orderName VARCHAR(255);
+	DECLARE lastTransactionKey VARCHAR(64);
+	DECLARE paymentKey VARCHAR(200);
+	DECLARE totalAmount INT;
+	DECLARE vatAmount DECIMAL(10,2);
+	DECLARE suppliedAmount DECIMAL(10,2);
+	DECLARE paymentId BIGINT;
+	DECLARE CONTINUE HANDLER FOR SQLEXCEPTION
+	BEGIN
+		ROLLBACK;
+		SIGNAL SQLSTATE '45000'
+		SET MESSAGE_TEXT = '포인트 차감 중 오류 발생';
+	END;
+	START TRANSACTION;
+	SELECT total_price INTO totalPrice
+	FROM online_order oo
+	INNER JOIN online_cart oc ON oo.online_cart_id = oc.online_cart_id
+	WHERE oo.order_id = orderId;
+   -- 랜덤 lastTransactionKey 생성 (영어 대소문자 + 숫자, 32~64자)
+   SET lastTransactionKey = (
+      SELECT SUBSTRING(
+         GROUP_CONCAT(CHAR(FLOOR(RAND() * 62) + 
+         CASE 
+            WHEN FLOOR(RAND() * 3) = 0 THEN 48  -- 숫자 (0-9)
+            WHEN FLOOR(RAND() * 3) = 1 THEN 65  -- 대문자 (A-Z)
+            ELSE 97  -- 소문자 (a-z)
+         END) SEPARATOR ''), 
+         1, FLOOR(RAND() * (64 - 32 + 1)) + 32
+      )
+   );
+	-- 랜덤 paymentKey 생성 (영어 대소문자 + 숫자, 20~200자)
+   SET paymentKey = (
+      SELECT SUBSTRING(
+         GROUP_CONCAT(CHAR(FLOOR(RAND() * 62) + 
+         CASE 
+            WHEN FLOOR(RAND() * 3) = 0 THEN 48  -- 숫자 (0-9)
+            WHEN FLOOR(RAND() * 3) = 1 THEN 65  -- 대문자 (A-Z)
+            ELSE 97  -- 소문자 (a-z)
+         END) SEPARATOR ''), 
+         1, FLOOR(RAND() * (200 - 20 + 1)) + 20
+      )
+   );
+   SELECT CONCAT(p.`name`,' 외',(totalCount - 1), '개') INTO orderName
+   FROM (
+   	SELECT p.`name`
+		FROM online_order oo
+		INNER JOIN online_cart oc ON oo.online_cart_id = oc.online_cart_id
+		INNER JOIN online_cart_product ocp ON oc.online_cart_id = ocp.online_cart_id
+		INNER JOIN warehouse_inventory wi ON ocp.inventory_id = wi.inventory_id
+		INNER JOIN product p ON wi.product_id = p.product_id
+		WHERE oo.order_id = orderId
+		ORDER BY ocp.cart_product_id
+		LIMIT 1
+	) AS firstProduct,
+	(
+		SELECT COUNT(*) AS totalCount
+		FROM online_order oo
+		INNER JOIN online_cart oc ON oo.online_cart_id = oc.online_cart_id
+		INNER JOIN online_cart_product ocp ON oc.online_cart_id = ocp.online_cart_id
+		INNER JOIN warehouse_inventory wi ON ocp.inventory_id = wi.inventory_id
+		INNER JOIN product p ON wi.product_id = p.product_id
+		WHERE oo.order_id = orderId
+	) AS productCount;
+   SET totalAmount = (totalPrice - usePoint);
+   SET vatAmount = ROUND(totalAmount / 11, 0);
+   SET suppliedAmount = totalAmount - vatAmount;
+	INSERT INTO online_payment (
+		last_transaction_key,
+		payment_key,
+		order_id,
+		order_name,
+		`status`,
+		requested_at,
+		is_partial_cancelable,
+		total_amount,
+		balance_amount,
+		supplied_amount,
+		vat,
+		method
+	) VALUES (
+		lastTransactionKey,
+		paymentKey,
+		orderId,
+		orderName,
+		'READY',
+		NOW(),
+		FLOOR(RAND() * 2),
+		totalAmount,
+		totalAmount,
+		suppliedAmount,
+		vatAmount,
+		method
+	);
+	SET paymentId = LAST_INSERT_ID();
+	INSERT INTO online_easy_pay (
+		provider,
+		amount,
+		discount_amount
+	) VALUES (
+		provider,
+		totalAmount - discountAmount,
+		discountAmount
+	);
+	UPDATE online_payment
+	SET easy_pay_id = LAST_INSERT_ID()
+	WHERE online_payment_id = paymentId;
+	CALL point_deduction(totalAmount, usePoint, orderId);
+	CALL point_earning(totalAmount, orderId);
+	COMMIT;
+END //
+DELIMITER ;</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>req_full_cancel_order</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자의 취소 요청 데이터를 online_cancels에 입력한다</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>DELIMITER //
+CREATE PROCEDURE req_full_cancel_order(
+IN orderId BIGINT,
+IN cancelReason VARCHAR(255)
+)
+BEGIN
+	DECLARE paymentId BIGINT;
+	DECLARE cancelId BIGINT;
+	DECLARE transactionKey VARCHAR(64);
+	DECLARE amount INT;
+	START TRANSACTION;
+	SELECT online_payment_id, total_amount INTO paymentId, amount
+	FROM online_payment
+	WHERE order_id = orderId;
+   SET transactionKey = (
+      SELECT SUBSTRING(
+         GROUP_CONCAT(CHAR(FLOOR(RAND() * 62) + 
+         CASE 
+            WHEN FLOOR(RAND() * 3) = 0 THEN 48  -- 숫자 (0-9)
+            WHEN FLOOR(RAND() * 3) = 1 THEN 65  -- 대문자 (A-Z)
+            ELSE 97  -- 소문자 (a-z)
+         END) SEPARATOR ''), 
+         1, FLOOR(RAND() * (64 - 32 + 1)) + 32
+      )
+   );
+	IF cancelReason IS NOT NULL THEN
+		INSERT INTO online_cancels (
+			transaction_key,
+			cancel_reason,
+			canceled_at,
+			cancel_amount,
+			tax_free_amount,
+			refundable_amount,
+			cancel_status
+		) VALUES (
+			transactionKey,
+			cancelReason,
+			NOW(),
+			amount,
+			0,
+			0,
+			'IN-PROGRESS'
+		);
+		SET cancelId = LAST_INSERT_ID();
+		COMMIT;
+	ELSE
+		ROLLBACK;
+	END IF;
+	CALL approve_full_cancel_order(orderId, cancelId);
+END //
+DELIMITER ;</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>approve_full_cancel_order</t>
+  </si>
+  <si>
+    <t>결제 승인</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>DELIMITER //
+CREATE PROCEDURE approve_full_cancel_order(
+IN orderID BIGINT,
+IN cancelId BIGINT
+)
+BEGIN
+	DECLARE paymentId BIGINT;
+	DECLARE transactionKey VARCHAR(64);
+	DECLARE returnType VARCHAR(30);
+	DECLARE statusCheck VARCHAR(30);
+	START TRANSACTION;
+	SELECT online_payment_id INTO paymentId
+	FROM online_payment
+	WHERE order_id = orderId;
+	SELECT transaction_key INTO transactionKey
+	FROM online_cancels
+	WHERE cancels_id = cancelId;
+	SELECT dr.return_types, dr.status_check INTO returnType, statusCheck
+	FROM delivery_return dr
+	INNER JOIN delivery d ON dr.delivery_id = d.delivery_id
+	WHERE d.online_payment_id = paymentId;
+	IF returnType = '환불' AND statusCheck = '검사완료' THEN
+		UPDATE online_payment
+		SET last_transaction_key = transactionKey, `status` = 'CANCELED', balance_amount = 0, cancels_id = cancelId
+		WHERE online_payment_id = paymentId;
+		UPDATE online_cancels
+		SET canceled_at = NOW(), cancel_status = 'DONE'
+		WHERE cancels_id = cancelId;
+	ELSE
+		ROLLBACK;
+	END IF;
+	COMMIT;
+END //
+DELIMITER ;</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>point_deduction</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>point_earning</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제 시 사용한 포인트 차감</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제 후 포인트 적립</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제 취소 시 포인트 롤백</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>DELIMITER //
+CREATE PROCEDURE point_deduction(
+IN payAmount INT,
+IN usePoint INT,
+IN orderId BIGINT
+)
+BEGIN
+	DECLARE pointId BIGINT;
+	DECLARE totalPoint INT;
+	DECLARE customerId BIGINT;
+	START TRANSACTION;
+	SELECT point_id INTO pointId
+	FROM online_order
+	WHERE order_id = orderId
+	FOR UPDATE;
+	IF pointId IS NOT NULL THEN
+		SELECT total_points, customer_id INTO totalPoint, customerId
+		FROM `point`
+		WHERE point_id = pointId
+		FOR UPDATE;
+		INSERT INTO `point` (
+			customer_id,
+			total_amount,
+			current_points,
+			`type`,
+			delta,
+			total_points,
+			date_time
+		) VALUES (
+			customerId,
+			payAmount,
+			totalPoint,
+			'Used',
+			- usePoint,
+			totalPoint + (- usePoint),
+			NOW()
+		);
+		COMMIT;
+	ELSE
+		ROLLBACK;
+	END IF;
+END //
+DELIMITER ;</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>DELIMITER //
+CREATE PROCEDURE point_earning(
+IN payAmount INT,
+IN orderId BIGINT
+)
+BEGIN
+	DECLARE pointId BIGINT;
+	DECLARE customerId BIGINT;
+	DECLARE customerGrade ENUM('Normal','VIP','VVIP','SVIP');
+	DECLARE earnRate DECIMAL(3, 2);
+	DECLARE totalPoint INT;
+	START TRANSACTION;
+	SELECT point_id INTO pointId
+	FROM online_order
+	WHERE order_id = orderId
+	FOR UPDATE;
+	IF pointId IS NOT NULL THEN
+		SELECT total_points, customer_id INTO totalPoint, customerId
+		FROM `point`
+		WHERE point_id = pointId
+		FOR UPDATE;
+		SELECT `name` INTO customerGrade
+		FROM grade
+		WHERE customer_id = customerId
+		FOR UPDATE;
+		SET earnRate = CASE
+			WHEN customerGrade = 'Normal' THEN 0.01
+			WHEN customerGrade = 'VIP' THEN 0.02
+			WHEN customerGrade = 'VVIP' THEN 0.03
+         WHEN customerGrade = 'SVIP' THEN 0.05
+         ELSE 0.00
+      END;
+		INSERT INTO `point` (
+			customer_id,
+			total_amount,
+			current_points,
+			`type`,
+			delta,
+			total_points,
+			date_time
+		) VALUES (
+			customerId,
+			payAmount,
+			totalPoint,
+			'Earned',
+			payAmount * earnRate,
+			totalPoint + (payAmount * earnRate),
+			NOW()
+		);
+	END IF;
+	COMMIT;
+END //
+DELIMITER ;</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>DELIMITER //
+CREATE PROCEDURE rollback_point(
+IN orderId BIGINT
+)
+BEGIN
+	DECLARE recoveryPoint INT;
+	DECLARE reversalPoint INT;
+	DECLARE pointId BIGINT;
+	DECLARE customerId BIGINT;
+	DECLARE totalPoint INT;
+	START TRANSACTION;
+	SELECT point_id INTO pointId
+	FROM online_order oo
+	WHERE order_id = orderId;
+	SELECT customer_id INTO customerId
+	FROM `point`
+	WHERE point_id = pointId;
+	SELECT delta INTO reversalPoint
+	FROM `point`
+	WHERE point_id = pointId + 1;
+	SELECT delta INTO recoveryPoint
+	FROM `point`
+	WHERE point_id = pointId + 2;
+	SELECT total_points INTO totalPoint
+	FROM `point`
+	ORDER BY date_time desc
+	LIMIT 1;
+	INSERT INTO `point` (
+		customer_id,
+		current_points,
+		`type`,
+		delta,
+		total_points,
+		date_time
+	) VALUES (
+		customerId,
+		totalPoint,
+		'Earned',
+		- reversalPoint,
+		totalPoint + (- reversalPoint),
+		NOW()
+	);
+	SELECT point_id, total_points INTO pointId, totalPoint
+	FROM `point`
+	ORDER BY date_time desc
+	LIMIT 1;
+	INSERT INTO `point` (
+		customer_id,
+		current_points,
+		`type`,
+		delta,
+		total_points,
+		date_time
+	) VALUES (
+		customerId,
+		totalPoint,
+		'Used',
+		- recoveryPoint,
+		totalPoint + (- recoveryPoint),
+		NOW()
+	);
+	COMMIT;
+END //
+DELIMITER ;</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>rollback_point</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_offline_order</t>
+  </si>
+  <si>
+    <t>scan_barcode</t>
+  </si>
+  <si>
+    <t>오프라인 주문 생성</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 바코드 스캔 시 상품 목록에 데이터 입력</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>DELIMITER //
+CREATE PROCEDURE create_offline_order(
+IN customerId BIGINT,
+IN payMethod VARCHAR(20),
+OUT newCartId BIGINT,
+OUT newOrderId BIGINT
+)
+BEGIN
+	DECLARE cartId BIGINT;
+	DECLARE pointId BIGINT;
+	DECLARE orderId BIGINT;
+	START TRANSACTION;
+	INSERT INTO Offline_Cart (
+		c_id,
+		total_price
+	) VALUES (
+		customerId,
+		0
+	);
+	SET cartId = LAST_INSERT_ID();
+	SET newCartId = cartId;
+	SELECT point_id INTO pointID
+	FROM `point`
+	WHERE customer_id = customerId
+	ORDER BY date_time desc
+	LIMIT 1;
+	INSERT INTO Offline_Order (
+		offline_cart_id,
+		point_id,
+		pay_method,
+		`status`
+	) VALUES (
+		cartId,
+		pointID,
+		payMethod,
+		'결제 대기'
+	);
+	SET orderId = LAST_INSERT_ID();
+	SET newOrderId = orderId;
+	COMMIT;
+END //
+DELIMITER ;</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">DELIMITER //
+CREATE PROCEDURE scan_barcode(
+IN storeId BIGINT,
+IN cartId BIGINT,
+IN productId BIGINT,
+IN quantity INT
+)
+BEGIN
+	DECLARE inventoryId BIGINT;
+	DECLARE price INT;
+	DECLARE cartTotalPrice INT;
+	DECLARE increasePrice INT;
+	START TRANSACTION;
+	SELECT inventory_id INTO inventoryId
+	FROM store_inventory
+	WHERE store_id = storeId AND product_id = productId;
+	SELECT final_price INTO price
+	FROM product_price
+	WHERE product_id = productId
+	ORDER BY date_time desc
+	LIMIT 1;
+	SELECT total_price INTO cartTotalPrice
+	FROM offline_cart
+	WHERE offline_cart_id = cartId;
+	INSERT INTO Offline_Cart_Product (
+		offline_cart_id,
+		inventory_id,
+		quantity,
+		price
+	) VALUES (
+		cartId,
+		inventoryId,
+		quantity,
+		price
+	);
+	SET increasePrice = quantity * price;
+	UPDATE Offline_Cart
+	SET total_price = cartTotalPrice + increasePrice
+	WHERE offline_cart_id = cartId;
+	COMMIT;
+END //
+DELIMITER ;	</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>offline_pay_card</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>offline_pay_cash</t>
+  </si>
+  <si>
+    <t>DELITMITER //
+CREATE PROCEDURE offline_pay_card(
+IN orderId BIGINT,
+IN payMethod VARCHAR(20),
+IN usePoint INT,
+IN cardNum VARCHAR(255),
+IN cardQu0ta INT,
+IN cardCode VARCHAR(2),
+IN cardName VARCHAR(2)
+)
+BEGIN
+	DECLARE totalPrice INT;
+	DECLARE tId VARCHAR(30);
+	DECLARE payAmount INT;
+	DECLARE goodsName VARCHAR(255);
+	DECLARE paymentId BIGINT;
+	START TRANSACTION;
+	SELECT oc.total_price INTO totalPrice
+	FROM Offline_Order oo
+	INNER JOIN Offline_Cart oc ON oo.offline_cart_id = oc.offline_cart_id
+	WHERE oo.order_id = orderId;
+   SET tId = (
+      SELECT SUBSTRING(
+         GROUP_CONCAT(CHAR(FLOOR(RAND() * 62) + 
+         CASE 
+            WHEN FLOOR(RAND() * 3) = 0 THEN 48  -- 숫자 (0-9)
+            WHEN FLOOR(RAND() * 3) = 1 THEN 65  -- 대문자 (A-Z)
+            ELSE 97  -- 소문자 (a-z)
+         END) SEPARATOR ''), 
+         1, FLOOR(RAND() * (30 - 15 + 1)) + 15
+      )
+   );
+   SET payAmount = totalPrice - usePoint;
+	SELECT 
+   	CASE 
+      	WHEN COUNT(*) = 1 THEN 
+         	MIN(p.name)
+      	ELSE 
+         	CONCAT(MIN(p.name), ' 외 ', COUNT(*) - 1, '개')
+   	END
+   INTO goodsName
+	FROM Offline_Order oo
+	INNER JOIN Offline_Cart oc ON oo.offline_cart_id = oc.offline_cart_id
+	INNER JOIN Offline_Cart_Product ocp ON oc.offline_cart_id = ocp.offline_cart_id
+	INNER JOIN Store_Inventory si ON ocp.inventory_id = si.inventory_id
+	INNER JOIN Product p ON si.product_id = p.product_id
+	WHERE oo.order_id = orderId;
+   INSERT INTO Offline_Payment (
+   	result_code,
+	   result_message,
+   	tid,
+	   order_id,
+	   edi_date,
+	   `status`,
+ 	  pay_method,
+ 	  amount,
+ 	  balance_amt,
+ 	  goods_name,
+ 	  issued_cash_receipt
+   ) VALUES (
+   	'0000',
+   	'결제 성공',
+   	tId,
+   	orderId,
+   	NOW(),
+   	'ready',
+   	payMethod,
+   	payAmount,
+   	payAmount,
+   	goodsName,
+   	FLOOR(RAND() * 2)
+   );
+   SET paymentId = LAST_INSERT_ID();
+   INSERT INTO Offline_Card (
+   	card_code,
+   	card_name,
+   	card_num,
+   	card_quota,
+   	card_type,
+   	can_part_cancel,
+   	acqu_card_code,
+   	acqu_card_name
+   ) VALUES (
+   	cardCode,
+   	cardName,
+   	CONCAT(LEFT(cardNum, 8), '****', SUBSTRING(cardNum, -4, 3), '*'),
+   	cardQu0ta,
+   	CASE WHEN FLOOR(RAND() * 2) = 0 THEN 'credit' ELSE 'check' END,
+   	FLOOR(RAND() * 2),
+   	cardCode,
+   	cardName
+   );
+   UPDATE offline_payment
+   SET card_id = LAST_INSERT_ID(), paid_at = NOW()
+   WHERE offline_payment_id = paymentId;
+   CALL point_deduction(totalAmount, usePoint, orderId);
+	CALL point_earning(totalAmount, orderId);
+	COMMIT;
+END //
+DELIMITER ;</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>DELIMITER //
+CREATE PROCEDURE offline_pay_cash(
+IN orderId BIGINT,
+IN usePoint INT
+)
+BEGIN
+	START TRANSACTION;
+	SELECT oc.total_price INTO totalPrice
+	FROM Offline_Order oo
+	INNER JOIN Offline_Cart oc ON oo.offline_cart_id = oc.offline_cart_id
+	WHERE oo.order_id = orderId;
+	SET payAmount = totalPrice - usePoint;
+	INSERT INTO offline_cash (
+		order_id,
+		amount,
+		pay_date,
+		`status`,
+		created_at
+	) VALUES (
+		orderId,
+		payAmount,
+		NOW(),
+		'COMPLETE',
+		NOW()
+	);
+	COMMIT;
+END //
+DELIMITER ;</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>오프라인 카드 결제</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>오프라인 현금 결제</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1117,7 +2242,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="yyyy&quot;년&quot;\ m&quot;월&quot;\ d&quot;일&quot;;@"/>
+  </numFmts>
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1236,8 +2364,33 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1324,6 +2477,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1345,7 +2504,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="12">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1382,8 +2541,11 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1447,15 +2609,6 @@
     <xf numFmtId="0" fontId="13" fillId="13" borderId="0" xfId="11" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="5" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" xfId="11" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1474,13 +2627,44 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" xfId="11" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" xfId="12" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" xfId="12" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="12">
+  <cellStyles count="13">
     <cellStyle name="20% - 강조색1" xfId="6" builtinId="30"/>
     <cellStyle name="20% - 강조색2" xfId="7" builtinId="34"/>
     <cellStyle name="20% - 강조색3" xfId="8" builtinId="38"/>
     <cellStyle name="20% - 강조색4" xfId="9" builtinId="42"/>
     <cellStyle name="20% - 강조색6" xfId="10" builtinId="50"/>
+    <cellStyle name="40% - 강조색5" xfId="12" builtinId="47"/>
     <cellStyle name="강조색1" xfId="5" builtinId="29"/>
     <cellStyle name="나쁨" xfId="2" builtinId="27"/>
     <cellStyle name="보통" xfId="3" builtinId="28"/>
@@ -1807,7 +2991,7 @@
   <dimension ref="A1:K61"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="7" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
@@ -1826,10 +3010,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="22"/>
+      <c r="G1" s="28"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F2" s="5" t="s">
@@ -1856,13 +3040,13 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
       <c r="F5" s="9" t="s">
         <v>15</v>
       </c>
@@ -2873,7 +4057,7 @@
       <c r="D46" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="E46" s="24" t="s">
+      <c r="E46" s="21" t="s">
         <v>249</v>
       </c>
       <c r="F46" s="2" t="s">
@@ -2894,7 +4078,7 @@
       <c r="D47" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="E47" s="25" t="s">
+      <c r="E47" s="22" t="s">
         <v>253</v>
       </c>
       <c r="F47" s="2" t="s">
@@ -2915,7 +4099,7 @@
       <c r="D48" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="E48" s="24" t="s">
+      <c r="E48" s="21" t="s">
         <v>249</v>
       </c>
       <c r="F48" s="2" t="s">
@@ -2936,7 +4120,7 @@
       <c r="D49" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="E49" s="24" t="s">
+      <c r="E49" s="21" t="s">
         <v>57</v>
       </c>
       <c r="F49" s="2" t="s">
@@ -2957,7 +4141,7 @@
       <c r="D50" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="E50" s="24" t="s">
+      <c r="E50" s="21" t="s">
         <v>249</v>
       </c>
       <c r="F50" s="2" t="s">
@@ -3301,7 +4485,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="29" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -3333,7 +4517,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A4" s="23"/>
+      <c r="A4" s="29"/>
       <c r="B4" s="2" t="s">
         <v>88</v>
       </c>
@@ -3812,10 +4996,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{444E93D6-ED11-4590-A7D7-036BA4610650}">
-  <dimension ref="A2:J10"/>
+  <dimension ref="A2:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3823,16 +5007,17 @@
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.5" customWidth="1"/>
     <col min="3" max="3" width="43.125" customWidth="1"/>
-    <col min="4" max="4" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.125" customWidth="1"/>
-    <col min="8" max="8" width="32.875" customWidth="1"/>
-    <col min="9" max="9" width="36.75" customWidth="1"/>
-    <col min="10" max="10" width="32.75" customWidth="1"/>
+    <col min="4" max="4" width="15.375" customWidth="1"/>
+    <col min="5" max="5" width="9.5" customWidth="1"/>
+    <col min="6" max="6" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.125" customWidth="1"/>
+    <col min="9" max="9" width="32.875" customWidth="1"/>
+    <col min="10" max="10" width="36.75" customWidth="1"/>
+    <col min="11" max="11" width="32.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>156</v>
       </c>
@@ -3842,30 +5027,33 @@
       <c r="C2" s="16" t="s">
         <v>222</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="16" t="s">
+        <v>280</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="J2" s="16" t="s">
+      <c r="K2" s="16" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="99" x14ac:dyDescent="0.3">
-      <c r="A3" s="26" t="s">
+    <row r="3" spans="1:11" ht="99" x14ac:dyDescent="0.3">
+      <c r="A3" s="23" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -3874,30 +5062,32 @@
       <c r="C3" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="E3" s="27">
-        <v>45727.839618055557</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="G3" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="H3" s="2">
+      <c r="F3" s="24">
+        <f ca="1">NOW()</f>
+        <v>45735.84376689815</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="H3" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="I3" s="2">
         <v>0</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="2">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="26" t="s">
+    <row r="4" spans="1:11" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="23" t="s">
         <v>273</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -3906,115 +5096,145 @@
       <c r="C4" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="E4" s="27">
+      <c r="F4" s="24">
         <v>45727.854421296295</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="G4" s="29" t="s">
+      <c r="H4" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="99" x14ac:dyDescent="0.3">
-      <c r="A5" s="26" t="s">
+    <row r="5" spans="1:11" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="23" t="s">
         <v>25</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="C5" s="2"/>
+        <v>276</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>277</v>
+      </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="26" t="s">
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>278</v>
+      </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>269</v>
+      </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="26" t="s">
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>279</v>
+      </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>269</v>
+      </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="26" t="s">
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="23" t="s">
         <v>28</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>269</v>
+      </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="26" t="s">
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="23" t="s">
         <v>29</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>269</v>
+      </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="26" t="s">
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="23" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="E10" s="2" t="s">
+        <v>269</v>
+      </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H14" s="25" t="s">
+        <v>60</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
@@ -4023,6 +5243,275 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D3FAC4F-684A-4B7A-9E27-4BBE7A5494B1}">
+  <dimension ref="A1:G14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.25" customWidth="1"/>
+    <col min="2" max="2" width="13.875" customWidth="1"/>
+    <col min="3" max="3" width="23.375" customWidth="1"/>
+    <col min="4" max="4" width="31.5" customWidth="1"/>
+    <col min="5" max="5" width="98.25" customWidth="1"/>
+    <col min="6" max="6" width="20.25" customWidth="1"/>
+    <col min="7" max="7" width="18.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A1" s="30" t="s">
+        <v>281</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>282</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>284</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>285</v>
+      </c>
+      <c r="F1" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="G1" s="30" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="B2" s="32" t="s">
+        <v>288</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="D2" s="33" t="s">
+        <v>291</v>
+      </c>
+      <c r="E2" s="35" t="s">
+        <v>293</v>
+      </c>
+      <c r="F2" s="34">
+        <v>45730</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="B3" s="32" t="s">
+        <v>288</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>292</v>
+      </c>
+      <c r="E3" s="36" t="s">
+        <v>294</v>
+      </c>
+      <c r="F3" s="34">
+        <v>45731</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="B4" s="32" t="s">
+        <v>288</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>297</v>
+      </c>
+      <c r="E4" s="36" t="s">
+        <v>295</v>
+      </c>
+      <c r="F4" s="34">
+        <v>45731</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="B5" s="32" t="s">
+        <v>288</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>299</v>
+      </c>
+      <c r="E5" s="36" t="s">
+        <v>300</v>
+      </c>
+      <c r="F5" s="34">
+        <v>45733</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="B6" s="32" t="s">
+        <v>288</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D6" s="33" t="s">
+        <v>302</v>
+      </c>
+      <c r="E6" s="36" t="s">
+        <v>303</v>
+      </c>
+      <c r="F6" s="34">
+        <v>45733</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="B7" s="32" t="s">
+        <v>288</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>305</v>
+      </c>
+      <c r="E7" s="36" t="s">
+        <v>306</v>
+      </c>
+      <c r="F7" s="34">
+        <v>45733</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="B8" s="32" t="s">
+        <v>288</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>309</v>
+      </c>
+      <c r="E8" s="36" t="s">
+        <v>312</v>
+      </c>
+      <c r="F8" s="34">
+        <v>45734</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="B9" s="32" t="s">
+        <v>288</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="D9" s="33" t="s">
+        <v>310</v>
+      </c>
+      <c r="E9" s="36" t="s">
+        <v>313</v>
+      </c>
+      <c r="F9" s="34">
+        <v>45734</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="B10" s="32" t="s">
+        <v>288</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="D10" s="33" t="s">
+        <v>311</v>
+      </c>
+      <c r="E10" s="36" t="s">
+        <v>314</v>
+      </c>
+      <c r="F10" s="34">
+        <v>45734</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="B11" s="32" t="s">
+        <v>288</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="D11" s="33" t="s">
+        <v>318</v>
+      </c>
+      <c r="E11" s="36" t="s">
+        <v>320</v>
+      </c>
+      <c r="F11" s="34">
+        <v>45734</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="B12" s="32" t="s">
+        <v>288</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D12" s="33" t="s">
+        <v>319</v>
+      </c>
+      <c r="E12" s="36" t="s">
+        <v>321</v>
+      </c>
+      <c r="F12" s="34">
+        <v>45734</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="B13" s="32" t="s">
+        <v>288</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>326</v>
+      </c>
+      <c r="E13" s="36" t="s">
+        <v>324</v>
+      </c>
+      <c r="F13" s="34">
+        <v>45735</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="B14" s="32" t="s">
+        <v>288</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="D14" s="33" t="s">
+        <v>327</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>325</v>
+      </c>
+      <c r="F14" s="34">
+        <v>45735</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F50FCE08-A9A6-4483-84DE-98EAA6AAEB1B}">
   <dimension ref="A2:J5"/>
   <sheetViews>

--- a/TestCase/TestCaseSHC.xlsx
+++ b/TestCase/TestCaseSHC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\python\TestCase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA8CDD38-8B8F-450A-96A2-0D4FB0E19AA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74465D54-4FF1-42E6-B44A-F6808402BBE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{A7ACD227-042E-496B-990A-C02EFE6A0BF7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{A7ACD227-042E-496B-990A-C02EFE6A0BF7}"/>
   </bookViews>
   <sheets>
     <sheet name="Testcase" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="310">
   <si>
     <t>입력값</t>
     <phoneticPr fontId="7" type="noConversion"/>
@@ -1089,105 +1089,7 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>상품 재고가 없을 경우 또는 상품 재고가 고객이 구매하려는 수량보다 적은경우 장바구니 목록에 추가되면 안된다</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>SELECT COUNT(*) FROM Online_Cart_Product ocp INNER JOIN Warehouse_Inventory wi ON ocp.inventory_id = wi.inventory_id INNER JOIN Product p ON p.product_id = wi.product_id WHERE wi.quantity = 0 OR ocp.quantity &gt; wi.quantity;</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>SELECT total_price FROM Online_Cart WHERE online_cart_id = ?;
-CALL update_product_quantity(?,?,?);
-SELECT total_price FROM Online_Cart WHERE online_cart_id = ?;</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>TC-PR-002</t>
-  </si>
-  <si>
-    <t>상품 장바구니 목록에 상품이 추가 되거나 상품 수량이 변경되면 상품 장바구니 테이블의 total_price가 최신화 되어야 한다(온라인)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.437 sec</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>바코드 스캔을 하면 offline_cart 데이터가 생성된 후 offline_cart_product에 상품 수량이 증가하고 스캔을 찍을때마다 offline_cart의 total_price를 최신화 한다(오프라인)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>DELIMITER //
-CREATE PROCEDURE process_offline_cart(
-    IN customerId BIGINT,
-    IN productId BIGINT,
-    IN storeId BIGINT,
-    IN quantityChange INT
-)
-BEGIN
-    DECLARE cartId BIGINT;
-    DECLARE productPrice INT;
-    DECLARE existingQuantity INT;
-    DECLARE inventoryId BIGINT;
-    -- 트랜잭션 시작
-    START TRANSACTION;
-    -- 1. 고객의 장바구니 존재 여부 확인
-    SELECT offline_cart_id INTO cartId
-    FROM offline_cart
-    WHERE c_id = customerId
-    LIMIT 1;
-    -- 2. 장바구니가 없으면 생성
-    IF cartId IS NULL THEN
-        INSERT INTO offline_cart (c_id, total_price)
-        VALUES (customerId, 0);
-        SET cartId = LAST_INSERT_ID();
-    END IF;
-    -- 3. inventory_id 가져오기 (store_inventory에서)
-    SELECT inventory_id INTO inventoryId
-    FROM store_inventory
-    WHERE product_id = productId AND store_id = storeId;
-    -- 4. 상품의 최종 가격 가져오기 (product_price에서)
-    SELECT final_price INTO productPrice
-    FROM product_price
-    WHERE product_id = productId
-    ORDER BY date_time DESC
-    LIMIT 1;
-    -- 5. 장바구니에 상품이 있는지 확인
-    SELECT quantity INTO existingQuantity
-    FROM offline_cart_product
-    WHERE offline_cart_id = cartId AND inventory_id = inventoryId;
-    -- 6. 상품이 이미 있으면 수량 증가, 없으면 새로 추가
-    IF existingQuantity IS NOT NULL THEN
-        UPDATE offline_cart_product
-        SET quantity = quantity + quantityChange
-        WHERE offline_cart_id = cartId AND inventory_id = inventoryId;
-    ELSE
-        INSERT INTO offline_cart_product (offline_cart_id, inventory_id, quantity, price)
-        VALUES (cartId, inventoryId, quantityChange, productPrice);
-    END IF;
-    -- 7. total_price 최신화
-    UPDATE offline_cart
-    SET total_price = (
-        SELECT COALESCE(SUM(quantity * price), 0)
-        FROM offline_cart_product
-        WHERE offline_cart_id = cartId
-    )
-    WHERE offline_cart_id = cartId;
-    -- 트랜잭션 커밋
-    COMMIT;
-END;
-//
-DELIMITER ;</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>결제 시 포인트를 사용하면 결제 완료 후 고객포인트 테이블의 포인트를 최신화 해야한다</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>결제 취소 시 결제 취소 테이블에 데이터를 추가하고 결제 테이블을 업데이트 해야한다</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>문서 
@@ -1227,183 +1129,151 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>create_online_cart</t>
-  </si>
-  <si>
-    <t>put_in_cart</t>
-  </si>
-  <si>
-    <t>사용자의 장바구니를 생성하고 주문을 생성한다</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>생성된 장바구니에 구매하려는 상품을 추가한다</t>
+    <t>오프라인 주문 생성</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_online_order</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자의 주문 정보 생성</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>DELIMITER //
-CREATE PROCEDURE create_online_cart(
+CREATE PROCEDURE create_online_order(
 IN customerId BIGINT,
-IN receiverName VARCHAR(30),
-IN addressId BIGINT,
-IN receiverAddress VARCHAR(255),
-OUT newCartId BIGINT,
 OUT newOrderId BIGINT
 )
 BEGIN
-	DECLARE cartId BIGINT;
+	DECLARE r_name VARCHAR(255);
+	DECLARE r_fullAddress VARCHAR(255);
 	DECLARE pointId BIGINT;
-	DECLARE orderId BIGINT;
-	DECLARE customerName VARCHAR(255);
-	DECLARE customerAddress VARCHAR(255);
-	DECLARE city VARCHAR(20);
-	DECLARE district VARCHAR(20);
-	DECLARE address VARCHAR(50);
-	DECLARE address2 VARCHAR(50);
-	DECLARE postal_code VARCHAR(10);
+	DECLARE r_city VARCHAR(50);
+	DECLARE r_district VARCHAR(50);
+	DECLARE r_address VARCHAR(50);
+	DECLARE r_address2 VARCHAR(50);
+	DECLARE r_postalCode VARCHAR(10);
 	START TRANSACTION;
-	INSERT INTO online_cart (
-		customer_id,
-		total_price
-	) VALUES (
-		customerId,
-		0
-	);
-	SET cartId = LAST_INSERT_ID();
-	SET newCartId = cartId;
-	SELECT point_id INTO pointID
+	SELECT point_id INTO pointId
 	FROM `point`
 	WHERE customer_id = customerId
 	ORDER BY date_time desc
 	LIMIT 1;
-	IF receiverName IS NULL THEN
-		SELECT `name` INTO customerName
-		FROM customer
-		WHERE customer_id = customerId;
-	ELSE
-		SET customerName = receiverName;
-	END IF;
-	IF addressId IS NOT NULL THEN
-		SELECT city, district, address, address2, postal_code
-		INTO city, district, address, address2, postal_code
-		FROM Delivery_Address
-		WHERE address_id = addressId;
-		SET customerAddress = CONCAT(city, ' ', district, ' ', address, ' ', address2, ' ', postal_code);
-	ELSE
-		SET customerAddress = receiverAddress;
-		SET city = SUBSTRING_INDEX(receiverAddress, ' ', 1);
-		SET district = SUBSTRING_INDEX(SUBSTRING_INDEX(receiverAddress, ' ', 2), ' ', -1);
-		SET address = SUBSTRING_INDEX(SUBSTRING_INDEX(receiverAddress, ' ', 4), ' ', -2);
-		SET address2 = SUBSTRING_INDEX(SUBSTRING_INDEX(receiverAddress, ' ', 6), ' ', -3);
-		SET postal_code = SUBSTRING_INDEX(receiverAddress, ' ', -1);
-		INSERT INTO Delivery_Address (
-			customer_id,
-			city,
-			district,
-			address,
-			address2,
-			postal_code,
-			last_update
-		) VALUES (
-			customerId,
-			city,
-			district,
-			address,
-			address2,
-			postal_code,
-			NOW()
-		);
-	END IF;
-	INSERT INTO online_order (
-		online_cart_id,
+	SELECT `name` INTO r_name
+	FROM customer
+	WHERE customer_id = customerId;	
+	SELECT city, district, address, address2, postal_code
+	INTO r_city, r_district, r_address, r_address2, r_postalCode
+	FROM delivery_address
+	WHERE customer_id = customerId
+	LIMIT 1;
+	SET r_fullAddress = CONCAT(r_city, ' ', r_district, ' ', r_address, ' ', r_address2, ' ', r_postalCode);
+	INSERT INTO online_order(
+		customer_id,
 		point_id,
 		receiver_name,
 		receiver_address,
-		`status`
+		total_price,
+		`status`,
+		created_at
 	) VALUES (
-		cartId,
-		pointID,
-		customerName,
-		customerAddress,
-		'주문 접수'
+		customerId,
+		pointId,
+		r_name,
+		r_fullAddress,
+		0,
+		'주문 접수',
+		NOW()
 	);
-	SET orderId = LAST_INSERT_ID();
-	SET newOrderId = orderId;
+	SET newOrderId = LAST_INSERT_ID();
 	COMMIT;
 END //
 DELIMITER ;</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
+    <t>create_online_order_detail</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문 상세 정보 생성(상품 추가)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>DELIMITER //
-CREATE PROCEDURE put_in_cart(
-IN cartId BIGINT,
-IN productId BIGINT,
-IN quantity INT
+CREATE PROCEDURE create_online_order_detail(
+IN orderId BIGINT,
+IN inventoryId BIGINT,
+IN buyQuantity INT
 )
 BEGIN
-	DECLARE inventoryId BIGINT;
-	DECLARE price INT;
-	DECLARE inventoryQuantity INT;
-	DECLARE cartTotalPrice INT;
-	DECLARE increasePrice INT;
+	DECLARE productName VARCHAR(255);
+	DECLARE productId BIGINT;
+	DECLARE productPrice INT;
 	START TRANSACTION;
-	-- 재고 확인
-	SELECT inventory_id, quantity INTO inventoryId, inventoryQuantity
-	FROM Warehouse_Inventory
-	WHERE product_id = productId
-	FOR UPDATE;
-	-- 가격 조회
-	SELECT final_price INTO price
+	SELECT product_id INTO productId
+	FROM warehouse_inventory
+	WHERE inventory_id = inventoryId;
+	SELECT `name` INTO productName
+	FROM product
+	WHERE product_id = productId;
+	SELECT final_price INTO productPrice
 	FROM product_price
 	WHERE product_id = productId
 	ORDER BY date_time desc
 	LIMIT 1;
-	-- 장바구니 현재  총 금액 조회
-	SELECT total_price INTO cartTotalPrice
-	FROM Online_Cart
-	WHERE online_cart_id = cartId
-	FOR UPDATE;
-	IF inventoryQuantity &gt;= quantity THEN
-		INSERT INTO online_cart_product (
-			online_cart_id,
-			inventory_id,
-			quantity,
-			price
-		) VALUES (
-			cartId,
-			inventoryId,
-			quantity,
-			price
-		);
-		SET increasePrice = quantity * price;
-		UPDATE Online_Cart
-		SET total_price = cartTotalPrice + increasePrice
-		WHERE online_cart_id = cartId;
-		COMMIT;
-	ELSE
-		SIGNAL SQLSTATE '45000'
-		SET MESSAGE_TEXT = '재고가 부족합니다';
-		ROLLBACK;
-	END IF;
+	INSERT INTO online_order_detail(
+		order_id,
+		inventory_id,
+		product_name,
+		quantity,
+		price,
+		`status`,
+		created_at
+	) VALUES (
+		orderId,
+		inventoryId,
+		productName,
+		buyQuantity,
+		productPrice,
+		'주문 접수',
+		NOW()
+	);
+	SELECT total_price INTO totalPrice
+	FROM online_order
+	WHERE order_id = orderId;
+	UPDATE online_order SET total_price = totalPrice + (buyQuantity * productPrice) WHERE order_id = orderId;
+	COMMIT;
 END //
 DELIMITER ;</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
+    <t>online_payment_card</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>온라인 주문 카드 결제 시 생성</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>DELIMITER //
-CREATE PROCEDURE online_pay_card(
+CREATE PROCEDURE online_payment_card(
+IN orderId BIGINT,
 IN usePoint INT,
-IN orderId BIGINT,
-IN method VARCHAR(20),
 IN issuerCode VARCHAR(2),
 IN acquirerCode VARCHAR(2),
-IN cardNum VARCHAR(255),
+IN cardNum VARCHAR(16),
 IN installmentPlan INT
 )
 BEGIN
 	DECLARE totalPrice INT;
 	DECLARE orderName VARCHAR(255);
+	DECLARE productName VARCHAR(255);
+	DECLARE proQuantity INT;
+	DECLARE detailQuantity INT;
 	DECLARE lastTransactionKey VARCHAR(64);
 	DECLARE paymentKey VARCHAR(200);
 	DECLARE totalAmount INT;
@@ -1413,72 +1283,36 @@
 	DECLARE cardType VARCHAR(20);
 	DECLARE ownerType VARCHAR(20);
 	DECLARE paymentId BIGINT;
-	DECLARE CONTINUE HANDLER FOR SQLEXCEPTION
-	BEGIN
-		ROLLBACK;
-		SIGNAL SQLSTATE '45000'
-		SET MESSAGE_TEXT = '포인트 차감 중 오류 발생';
-	END;
 	START TRANSACTION;
 	SELECT total_price INTO totalPrice
-	FROM online_order oo
-	INNER JOIN online_cart oc ON oo.online_cart_id = oc.online_cart_id
-	WHERE oo.order_id = orderId;
-   -- 랜덤 lastTransactionKey 생성 (영어 대소문자 + 숫자, 32~64자)
-   SET lastTransactionKey = (
-      SELECT SUBSTRING(
-         GROUP_CONCAT(CHAR(FLOOR(RAND() * 62) + 
-         CASE 
-            WHEN FLOOR(RAND() * 3) = 0 THEN 48  -- 숫자 (0-9)
-            WHEN FLOOR(RAND() * 3) = 1 THEN 65  -- 대문자 (A-Z)
-            ELSE 97  -- 소문자 (a-z)
-         END) SEPARATOR ''), 
-         1, FLOOR(RAND() * (64 - 32 + 1)) + 32
-      )
-   );
-	-- 랜덤 paymentKey 생성 (영어 대소문자 + 숫자, 20~200자)
-   SET paymentKey = (
-      SELECT SUBSTRING(
-         GROUP_CONCAT(CHAR(FLOOR(RAND() * 62) + 
-         CASE 
-            WHEN FLOOR(RAND() * 3) = 0 THEN 48  -- 숫자 (0-9)
-            WHEN FLOOR(RAND() * 3) = 1 THEN 65  -- 대문자 (A-Z)
-            ELSE 97  -- 소문자 (a-z)
-         END) SEPARATOR ''), 
-         1, FLOOR(RAND() * (200 - 20 + 1)) + 20
-      )
-   );
-   SELECT CONCAT(p.`name`,' 외',(totalCount - 1), '개') INTO orderName
-   FROM (
-   	SELECT p.`name`
-		FROM online_order oo
-		INNER JOIN online_cart oc ON oo.online_cart_id = oc.online_cart_id
-		INNER JOIN online_cart_product ocp ON oc.online_cart_id = ocp.online_cart_id
-		INNER JOIN warehouse_inventory wi ON ocp.inventory_id = wi.inventory_id
-		INNER JOIN product p ON wi.product_id = p.product_id
-		WHERE oo.order_id = orderId
-		ORDER BY ocp.cart_product_id
-		LIMIT 1
-	) AS firstProduct,
-	(
-		SELECT COUNT(*) AS totalCount
-		FROM online_order oo
-		INNER JOIN online_cart oc ON oo.online_cart_id = oc.online_cart_id
-		INNER JOIN online_cart_product ocp ON oc.online_cart_id = ocp.online_cart_id
-		INNER JOIN warehouse_inventory wi ON ocp.inventory_id = wi.inventory_id
-		INNER JOIN product p ON wi.product_id = p.product_id
-		WHERE oo.order_id = orderId
-	) AS productCount;
-   SET totalAmount = (totalPrice - usePoint);
+	FROM online_order
+	WHERE order_id = orderId;
+	SELECT product_name, quantity INTO productName, proQuantity
+	FROM online_order_detail
+	WHERE order_id = orderId
+	ORDER BY order_detail_id
+	LIMIT 1;
+	SELECT COUNT(*) INTO detailQuantity
+	FROM online_order_detail
+	WHERE order_id = orderId;
+	IF detailQuantity = 1 THEN
+		SET orderName = CONCAT(productName, ' ', proQuantity, '개');
+	ELSE
+		SET orderName = CONCAT(productName, ' ', proQuantity, '개 외 ', (detailQuantity - 1), '개');
+	END IF;
+   SET lastTransactionKey = UUID();
+   SET paymentKey = UUID();
+   SET totalAmount = totalPrice - usePoint;
    SET vatAmount = ROUND(totalAmount / 11, 0);
    SET suppliedAmount = totalAmount - vatAmount;
-	INSERT INTO online_payment (
+   INSERT INTO online_payment (
 		last_transaction_key,
 		payment_key,
 		order_id,
 		order_name,
 		`status`,
 		requested_at,
+		approved_at,
 		is_partial_cancelable,
 		total_amount,
 		balance_amount,
@@ -1490,14 +1324,15 @@
 		paymentKey,
 		orderId,
 		orderName,
-		'READY',
+		'DONE',
 		NOW(),
-		FLOOR(RAND() * 2),
+		ADDDATE(NOW(), INTERVAL 1 SECOND),
+		1,
 		totalAmount,
 		totalAmount,
 		suppliedAmount,
 		vatAmount,
-		method
+		'간편 결제'
 	);
 	SET paymentId = LAST_INSERT_ID();
 	SET approveNo = LPAD(FLOOR(RAND() * 100000000), 8, '0');
@@ -1528,7 +1363,7 @@
 		totalAmount,
 		issuerCode,
 		acquirerCode,
-		CONCAT(LEFT(cardNum, 8), '****', SUBSTRING(cardNum, -4, 3), '*'),
+		CONCAT(LEFT(cardNum, 8), '****', LEFT(RIGHT(cardNum, 4), 3), '*'),
 		installmentPlan,
 		approveNo,
 		cardType,
@@ -1538,113 +1373,71 @@
 	UPDATE online_payment
 	SET card_id = LAST_INSERT_ID()
 	WHERE online_payment_id = paymentId;
-	CALL point_deduction(totalAmount, usePoint, orderId);
-	CALL point_earning(totalAmount, orderId);
+	UPDATE online_order
+	SET `status` = '결제 완료'
+	WHERE order_id = orderId;
 	COMMIT;
 END //
 DELIMITER ;</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>online_pay_card</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>온라인에서 카드 결제 시 결제 관련 데이터와 카드 관련 데이터를 입력한다</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>online_pay_easy_pay</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>온라인에서 간편 결제 시 결제 관련 데이터와 간편 결제 관련 데이터를 입력한다</t>
+    <t>online_payment_easy_pay</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>온라인 주문 간편 결제 시 생성</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>DELIMITER //
-CREATE PROCEDURE online_pay_easy_pay(
+CREATE PROCEDURE online_payment_easy_pay(
 IN usePoint INT,
 IN orderId BIGINT,
-IN method VARCHAR(20),
-IN provider VARCHAR(255),
-IN discountAmount INT
+IN provider VARCHAR(255)
 )
 BEGIN
 	DECLARE totalPrice INT;
 	DECLARE orderName VARCHAR(255);
+	DECLARE productName VARCHAR(255);
+	DECLARE proQuantity INT;
+	DECLARE detailQuantity INT;
 	DECLARE lastTransactionKey VARCHAR(64);
 	DECLARE paymentKey VARCHAR(200);
 	DECLARE totalAmount INT;
 	DECLARE vatAmount DECIMAL(10,2);
 	DECLARE suppliedAmount DECIMAL(10,2);
 	DECLARE paymentId BIGINT;
-	DECLARE CONTINUE HANDLER FOR SQLEXCEPTION
-	BEGIN
-		ROLLBACK;
-		SIGNAL SQLSTATE '45000'
-		SET MESSAGE_TEXT = '포인트 차감 중 오류 발생';
-	END;
 	START TRANSACTION;
 	SELECT total_price INTO totalPrice
-	FROM online_order oo
-	INNER JOIN online_cart oc ON oo.online_cart_id = oc.online_cart_id
-	WHERE oo.order_id = orderId;
-   -- 랜덤 lastTransactionKey 생성 (영어 대소문자 + 숫자, 32~64자)
-   SET lastTransactionKey = (
-      SELECT SUBSTRING(
-         GROUP_CONCAT(CHAR(FLOOR(RAND() * 62) + 
-         CASE 
-            WHEN FLOOR(RAND() * 3) = 0 THEN 48  -- 숫자 (0-9)
-            WHEN FLOOR(RAND() * 3) = 1 THEN 65  -- 대문자 (A-Z)
-            ELSE 97  -- 소문자 (a-z)
-         END) SEPARATOR ''), 
-         1, FLOOR(RAND() * (64 - 32 + 1)) + 32
-      )
-   );
-	-- 랜덤 paymentKey 생성 (영어 대소문자 + 숫자, 20~200자)
-   SET paymentKey = (
-      SELECT SUBSTRING(
-         GROUP_CONCAT(CHAR(FLOOR(RAND() * 62) + 
-         CASE 
-            WHEN FLOOR(RAND() * 3) = 0 THEN 48  -- 숫자 (0-9)
-            WHEN FLOOR(RAND() * 3) = 1 THEN 65  -- 대문자 (A-Z)
-            ELSE 97  -- 소문자 (a-z)
-         END) SEPARATOR ''), 
-         1, FLOOR(RAND() * (200 - 20 + 1)) + 20
-      )
-   );
-   SELECT CONCAT(p.`name`,' 외',(totalCount - 1), '개') INTO orderName
-   FROM (
-   	SELECT p.`name`
-		FROM online_order oo
-		INNER JOIN online_cart oc ON oo.online_cart_id = oc.online_cart_id
-		INNER JOIN online_cart_product ocp ON oc.online_cart_id = ocp.online_cart_id
-		INNER JOIN warehouse_inventory wi ON ocp.inventory_id = wi.inventory_id
-		INNER JOIN product p ON wi.product_id = p.product_id
-		WHERE oo.order_id = orderId
-		ORDER BY ocp.cart_product_id
-		LIMIT 1
-	) AS firstProduct,
-	(
-		SELECT COUNT(*) AS totalCount
-		FROM online_order oo
-		INNER JOIN online_cart oc ON oo.online_cart_id = oc.online_cart_id
-		INNER JOIN online_cart_product ocp ON oc.online_cart_id = ocp.online_cart_id
-		INNER JOIN warehouse_inventory wi ON ocp.inventory_id = wi.inventory_id
-		INNER JOIN product p ON wi.product_id = p.product_id
-		WHERE oo.order_id = orderId
-	) AS productCount;
-   SET totalAmount = (totalPrice - usePoint);
+	FROM online_order
+	WHERE order_id = orderId;
+	SELECT product_name, quantity INTO productName, proQuantity
+	FROM online_order_detail
+	WHERE order_id = orderId
+	ORDER BY order_detail_id
+	LIMIT 1;
+	SELECT COUNT(*) INTO detailQuantity
+	FROM online_order_detail
+	WHERE order_id = orderId;
+	IF detailQuantity = 1 THEN
+		SET orderName = CONCAT(productName, ' ', proQuantity, '개');
+	ELSE
+		SET orderName = CONCAT(productName, ' ', proQuantity, '개 외 ', (detailQuantity - 1), '개');
+	END IF;
+   SET lastTransactionKey = UUID();
+   SET paymentKey = UUID();
+   SET totalAmount = totalPrice - usePoint;
    SET vatAmount = ROUND(totalAmount / 11, 0);
    SET suppliedAmount = totalAmount - vatAmount;
-	INSERT INTO online_payment (
+   INSERT INTO online_payment (
 		last_transaction_key,
 		payment_key,
 		order_id,
 		order_name,
 		`status`,
 		requested_at,
+		approved_at,
 		is_partial_cancelable,
 		total_amount,
 		balance_amount,
@@ -1656,14 +1449,15 @@
 		paymentKey,
 		orderId,
 		orderName,
-		'READY',
+		'DONE',
 		NOW(),
-		FLOOR(RAND() * 2),
+		ADDDATE(NOW(), INTERVAL 1 SECOND),
+		1,
 		totalAmount,
 		totalAmount,
 		suppliedAmount,
 		vatAmount,
-		method
+		'간편 결제'
 	);
 	SET paymentId = LAST_INSERT_ID();
 	INSERT INTO online_easy_pay (
@@ -1672,330 +1466,22 @@
 		discount_amount
 	) VALUES (
 		provider,
-		totalAmount - discountAmount,
-		discountAmount
+		totalAmount,
+		0
 	);
 	UPDATE online_payment
 	SET easy_pay_id = LAST_INSERT_ID()
 	WHERE online_payment_id = paymentId;
-	CALL point_deduction(totalAmount, usePoint, orderId);
-	CALL point_earning(totalAmount, orderId);
+	UPDATE online_order
+	SET `status` = '결제 완료'
+	WHERE order_id = orderId;
 	COMMIT;
 END //
 DELIMITER ;</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>req_full_cancel_order</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자의 취소 요청 데이터를 online_cancels에 입력한다</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>DELIMITER //
-CREATE PROCEDURE req_full_cancel_order(
-IN orderId BIGINT,
-IN cancelReason VARCHAR(255)
-)
-BEGIN
-	DECLARE paymentId BIGINT;
-	DECLARE cancelId BIGINT;
-	DECLARE transactionKey VARCHAR(64);
-	DECLARE amount INT;
-	START TRANSACTION;
-	SELECT online_payment_id, total_amount INTO paymentId, amount
-	FROM online_payment
-	WHERE order_id = orderId;
-   SET transactionKey = (
-      SELECT SUBSTRING(
-         GROUP_CONCAT(CHAR(FLOOR(RAND() * 62) + 
-         CASE 
-            WHEN FLOOR(RAND() * 3) = 0 THEN 48  -- 숫자 (0-9)
-            WHEN FLOOR(RAND() * 3) = 1 THEN 65  -- 대문자 (A-Z)
-            ELSE 97  -- 소문자 (a-z)
-         END) SEPARATOR ''), 
-         1, FLOOR(RAND() * (64 - 32 + 1)) + 32
-      )
-   );
-	IF cancelReason IS NOT NULL THEN
-		INSERT INTO online_cancels (
-			transaction_key,
-			cancel_reason,
-			canceled_at,
-			cancel_amount,
-			tax_free_amount,
-			refundable_amount,
-			cancel_status
-		) VALUES (
-			transactionKey,
-			cancelReason,
-			NOW(),
-			amount,
-			0,
-			0,
-			'IN-PROGRESS'
-		);
-		SET cancelId = LAST_INSERT_ID();
-		COMMIT;
-	ELSE
-		ROLLBACK;
-	END IF;
-	CALL approve_full_cancel_order(orderId, cancelId);
-END //
-DELIMITER ;</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>approve_full_cancel_order</t>
-  </si>
-  <si>
-    <t>결제 승인</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>DELIMITER //
-CREATE PROCEDURE approve_full_cancel_order(
-IN orderID BIGINT,
-IN cancelId BIGINT
-)
-BEGIN
-	DECLARE paymentId BIGINT;
-	DECLARE transactionKey VARCHAR(64);
-	DECLARE returnType VARCHAR(30);
-	DECLARE statusCheck VARCHAR(30);
-	START TRANSACTION;
-	SELECT online_payment_id INTO paymentId
-	FROM online_payment
-	WHERE order_id = orderId;
-	SELECT transaction_key INTO transactionKey
-	FROM online_cancels
-	WHERE cancels_id = cancelId;
-	SELECT dr.return_types, dr.status_check INTO returnType, statusCheck
-	FROM delivery_return dr
-	INNER JOIN delivery d ON dr.delivery_id = d.delivery_id
-	WHERE d.online_payment_id = paymentId;
-	IF returnType = '환불' AND statusCheck = '검사완료' THEN
-		UPDATE online_payment
-		SET last_transaction_key = transactionKey, `status` = 'CANCELED', balance_amount = 0, cancels_id = cancelId
-		WHERE online_payment_id = paymentId;
-		UPDATE online_cancels
-		SET canceled_at = NOW(), cancel_status = 'DONE'
-		WHERE cancels_id = cancelId;
-	ELSE
-		ROLLBACK;
-	END IF;
-	COMMIT;
-END //
-DELIMITER ;</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>point_deduction</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>point_earning</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>결제 시 사용한 포인트 차감</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>결제 후 포인트 적립</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>결제 취소 시 포인트 롤백</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>DELIMITER //
-CREATE PROCEDURE point_deduction(
-IN payAmount INT,
-IN usePoint INT,
-IN orderId BIGINT
-)
-BEGIN
-	DECLARE pointId BIGINT;
-	DECLARE totalPoint INT;
-	DECLARE customerId BIGINT;
-	START TRANSACTION;
-	SELECT point_id INTO pointId
-	FROM online_order
-	WHERE order_id = orderId
-	FOR UPDATE;
-	IF pointId IS NOT NULL THEN
-		SELECT total_points, customer_id INTO totalPoint, customerId
-		FROM `point`
-		WHERE point_id = pointId
-		FOR UPDATE;
-		INSERT INTO `point` (
-			customer_id,
-			total_amount,
-			current_points,
-			`type`,
-			delta,
-			total_points,
-			date_time
-		) VALUES (
-			customerId,
-			payAmount,
-			totalPoint,
-			'Used',
-			- usePoint,
-			totalPoint + (- usePoint),
-			NOW()
-		);
-		COMMIT;
-	ELSE
-		ROLLBACK;
-	END IF;
-END //
-DELIMITER ;</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>DELIMITER //
-CREATE PROCEDURE point_earning(
-IN payAmount INT,
-IN orderId BIGINT
-)
-BEGIN
-	DECLARE pointId BIGINT;
-	DECLARE customerId BIGINT;
-	DECLARE customerGrade ENUM('Normal','VIP','VVIP','SVIP');
-	DECLARE earnRate DECIMAL(3, 2);
-	DECLARE totalPoint INT;
-	START TRANSACTION;
-	SELECT point_id INTO pointId
-	FROM online_order
-	WHERE order_id = orderId
-	FOR UPDATE;
-	IF pointId IS NOT NULL THEN
-		SELECT total_points, customer_id INTO totalPoint, customerId
-		FROM `point`
-		WHERE point_id = pointId
-		FOR UPDATE;
-		SELECT `name` INTO customerGrade
-		FROM grade
-		WHERE customer_id = customerId
-		FOR UPDATE;
-		SET earnRate = CASE
-			WHEN customerGrade = 'Normal' THEN 0.01
-			WHEN customerGrade = 'VIP' THEN 0.02
-			WHEN customerGrade = 'VVIP' THEN 0.03
-         WHEN customerGrade = 'SVIP' THEN 0.05
-         ELSE 0.00
-      END;
-		INSERT INTO `point` (
-			customer_id,
-			total_amount,
-			current_points,
-			`type`,
-			delta,
-			total_points,
-			date_time
-		) VALUES (
-			customerId,
-			payAmount,
-			totalPoint,
-			'Earned',
-			payAmount * earnRate,
-			totalPoint + (payAmount * earnRate),
-			NOW()
-		);
-	END IF;
-	COMMIT;
-END //
-DELIMITER ;</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>DELIMITER //
-CREATE PROCEDURE rollback_point(
-IN orderId BIGINT
-)
-BEGIN
-	DECLARE recoveryPoint INT;
-	DECLARE reversalPoint INT;
-	DECLARE pointId BIGINT;
-	DECLARE customerId BIGINT;
-	DECLARE totalPoint INT;
-	START TRANSACTION;
-	SELECT point_id INTO pointId
-	FROM online_order oo
-	WHERE order_id = orderId;
-	SELECT customer_id INTO customerId
-	FROM `point`
-	WHERE point_id = pointId;
-	SELECT delta INTO reversalPoint
-	FROM `point`
-	WHERE point_id = pointId + 1;
-	SELECT delta INTO recoveryPoint
-	FROM `point`
-	WHERE point_id = pointId + 2;
-	SELECT total_points INTO totalPoint
-	FROM `point`
-	ORDER BY date_time desc
-	LIMIT 1;
-	INSERT INTO `point` (
-		customer_id,
-		current_points,
-		`type`,
-		delta,
-		total_points,
-		date_time
-	) VALUES (
-		customerId,
-		totalPoint,
-		'Earned',
-		- reversalPoint,
-		totalPoint + (- reversalPoint),
-		NOW()
-	);
-	SELECT point_id, total_points INTO pointId, totalPoint
-	FROM `point`
-	ORDER BY date_time desc
-	LIMIT 1;
-	INSERT INTO `point` (
-		customer_id,
-		current_points,
-		`type`,
-		delta,
-		total_points,
-		date_time
-	) VALUES (
-		customerId,
-		totalPoint,
-		'Used',
-		- recoveryPoint,
-		totalPoint + (- recoveryPoint),
-		NOW()
-	);
-	COMMIT;
-END //
-DELIMITER ;</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>rollback_point</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>create_offline_order</t>
-  </si>
-  <si>
-    <t>scan_barcode</t>
-  </si>
-  <si>
-    <t>오프라인 주문 생성</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품 바코드 스캔 시 상품 목록에 데이터 입력</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -2003,239 +1489,161 @@
 CREATE PROCEDURE create_offline_order(
 IN customerId BIGINT,
 IN payMethod VARCHAR(20),
-OUT newCartId BIGINT,
 OUT newOrderId BIGINT
 )
 BEGIN
-	DECLARE cartId BIGINT;
 	DECLARE pointId BIGINT;
-	DECLARE orderId BIGINT;
 	START TRANSACTION;
-	INSERT INTO Offline_Cart (
-		c_id,
-		total_price
-	) VALUES (
-		customerId,
-		0
-	);
-	SET cartId = LAST_INSERT_ID();
-	SET newCartId = cartId;
-	SELECT point_id INTO pointID
+	SELECT point_id INTO pointId
 	FROM `point`
 	WHERE customer_id = customerId
 	ORDER BY date_time desc
 	LIMIT 1;
-	INSERT INTO Offline_Order (
-		offline_cart_id,
+	INSERT INTO offline_order (
+		customer_id,
 		point_id,
+		total_price,
 		pay_method,
-		`status`
+		`status`,
+		created_at
 	) VALUES (
-		cartId,
-		pointID,
+		customerId,
+		pointId,
+		0,
 		payMethod,
-		'결제 대기'
+		'결제 대기',
+		NOW()
 	);
-	SET orderId = LAST_INSERT_ID();
-	SET newOrderId = orderId;
+	SET newOrderId = LAST_INSERT_ID();
 	COMMIT;
 END //
 DELIMITER ;</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">DELIMITER //
-CREATE PROCEDURE scan_barcode(
-IN storeId BIGINT,
-IN cartId BIGINT,
-IN productId BIGINT,
-IN quantity INT
+    <t>create_offline_order_deatil</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>오프라인 주문 상세 생성(상품 추가)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>DELIMITER //
+CREATE PROCEDURE create_offline_order_detail(
+IN orderId BIGINT,
+IN inventoryId BIGINT,
+IN buyQuantity INT
 )
 BEGIN
-	DECLARE inventoryId BIGINT;
-	DECLARE price INT;
-	DECLARE cartTotalPrice INT;
-	DECLARE increasePrice INT;
+	DECLARE productId BIGINT;
+	DECLARE productName VARCHAR(255);
+	DECLARE productPrice INT;
+	DECLARE totalPrice INT;
 	START TRANSACTION;
-	SELECT inventory_id INTO inventoryId
+	SELECT product_id INTO productId
 	FROM store_inventory
-	WHERE store_id = storeId AND product_id = productId;
-	SELECT final_price INTO price
+	WHERE inventory_id = inventoryId;
+	SELECT `name` INTO productName
+	FROM product
+	WHERE product_id = productId;
+	SELECT final_price INTO productPrice
 	FROM product_price
 	WHERE product_id = productId
 	ORDER BY date_time desc
 	LIMIT 1;
-	SELECT total_price INTO cartTotalPrice
-	FROM offline_cart
-	WHERE offline_cart_id = cartId;
-	INSERT INTO Offline_Cart_Product (
-		offline_cart_id,
+	INSERT INTO offline_order_detail (
+		order_id,
 		inventory_id,
+		product_name,
 		quantity,
-		price
-	) VALUES (
-		cartId,
-		inventoryId,
-		quantity,
-		price
-	);
-	SET increasePrice = quantity * price;
-	UPDATE Offline_Cart
-	SET total_price = cartTotalPrice + increasePrice
-	WHERE offline_cart_id = cartId;
-	COMMIT;
-END //
-DELIMITER ;	</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>offline_pay_card</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>offline_pay_cash</t>
-  </si>
-  <si>
-    <t>DELITMITER //
-CREATE PROCEDURE offline_pay_card(
-IN orderId BIGINT,
-IN payMethod VARCHAR(20),
-IN usePoint INT,
-IN cardNum VARCHAR(255),
-IN cardQu0ta INT,
-IN cardCode VARCHAR(2),
-IN cardName VARCHAR(2)
-)
-BEGIN
-	DECLARE totalPrice INT;
-	DECLARE tId VARCHAR(30);
-	DECLARE payAmount INT;
-	DECLARE goodsName VARCHAR(255);
-	DECLARE paymentId BIGINT;
-	START TRANSACTION;
-	SELECT oc.total_price INTO totalPrice
-	FROM Offline_Order oo
-	INNER JOIN Offline_Cart oc ON oo.offline_cart_id = oc.offline_cart_id
-	WHERE oo.order_id = orderId;
-   SET tId = (
-      SELECT SUBSTRING(
-         GROUP_CONCAT(CHAR(FLOOR(RAND() * 62) + 
-         CASE 
-            WHEN FLOOR(RAND() * 3) = 0 THEN 48  -- 숫자 (0-9)
-            WHEN FLOOR(RAND() * 3) = 1 THEN 65  -- 대문자 (A-Z)
-            ELSE 97  -- 소문자 (a-z)
-         END) SEPARATOR ''), 
-         1, FLOOR(RAND() * (30 - 15 + 1)) + 15
-      )
-   );
-   SET payAmount = totalPrice - usePoint;
-	SELECT 
-   	CASE 
-      	WHEN COUNT(*) = 1 THEN 
-         	MIN(p.name)
-      	ELSE 
-         	CONCAT(MIN(p.name), ' 외 ', COUNT(*) - 1, '개')
-   	END
-   INTO goodsName
-	FROM Offline_Order oo
-	INNER JOIN Offline_Cart oc ON oo.offline_cart_id = oc.offline_cart_id
-	INNER JOIN Offline_Cart_Product ocp ON oc.offline_cart_id = ocp.offline_cart_id
-	INNER JOIN Store_Inventory si ON ocp.inventory_id = si.inventory_id
-	INNER JOIN Product p ON si.product_id = p.product_id
-	WHERE oo.order_id = orderId;
-   INSERT INTO Offline_Payment (
-   	result_code,
-	   result_message,
-   	tid,
-	   order_id,
-	   edi_date,
-	   `status`,
- 	  pay_method,
- 	  amount,
- 	  balance_amt,
- 	  goods_name,
- 	  issued_cash_receipt
-   ) VALUES (
-   	'0000',
-   	'결제 성공',
-   	tId,
-   	orderId,
-   	NOW(),
-   	'ready',
-   	payMethod,
-   	payAmount,
-   	payAmount,
-   	goodsName,
-   	FLOOR(RAND() * 2)
-   );
-   SET paymentId = LAST_INSERT_ID();
-   INSERT INTO Offline_Card (
-   	card_code,
-   	card_name,
-   	card_num,
-   	card_quota,
-   	card_type,
-   	can_part_cancel,
-   	acqu_card_code,
-   	acqu_card_name
-   ) VALUES (
-   	cardCode,
-   	cardName,
-   	CONCAT(LEFT(cardNum, 8), '****', SUBSTRING(cardNum, -4, 3), '*'),
-   	cardQu0ta,
-   	CASE WHEN FLOOR(RAND() * 2) = 0 THEN 'credit' ELSE 'check' END,
-   	FLOOR(RAND() * 2),
-   	cardCode,
-   	cardName
-   );
-   UPDATE offline_payment
-   SET card_id = LAST_INSERT_ID(), paid_at = NOW()
-   WHERE offline_payment_id = paymentId;
-   CALL point_deduction(totalAmount, usePoint, orderId);
-	CALL point_earning(totalAmount, orderId);
-	COMMIT;
-END //
-DELIMITER ;</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>DELIMITER //
-CREATE PROCEDURE offline_pay_cash(
-IN orderId BIGINT,
-IN usePoint INT
-)
-BEGIN
-	START TRANSACTION;
-	SELECT oc.total_price INTO totalPrice
-	FROM Offline_Order oo
-	INNER JOIN Offline_Cart oc ON oo.offline_cart_id = oc.offline_cart_id
-	WHERE oo.order_id = orderId;
-	SET payAmount = totalPrice - usePoint;
-	INSERT INTO offline_cash (
-		order_id,
-		amount,
-		pay_date,
+		price,
 		`status`,
 		created_at
 	) VALUES (
 		orderId,
-		payAmount,
-		NOW(),
-		'COMPLETE',
+		inventoryId,
+		productName,
+		buyQuantity,
+		productPrice,
+		'주문 접수',
 		NOW()
 	);
+	SELECT total_price INTO totalPrice
+	FROM offline_order
+	WHERE order_id = orderId;
+	UPDATE offline_order SET total_price = totalPrice + (productPrice * buyQuantity);
 	COMMIT;
 END //
 DELIMITER ;</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>오프라인 카드 결제</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>오프라인 현금 결제</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <t>온라인 주문 생성</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>온라인 주문 상세 생성</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>온라인 카드 결제 생성</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>온라인 간편 결제 생성</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>CALL create_online_order(1,@newOrderId);</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>CALL create_online_order_detail(@newOrderId, 1, 3);</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>CALL online_payment_card(@newOrderId, 500, 10, 10, 1234123412341234, 0)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>CALL online_payment_easy_pay(500, @newOrderId, 'Naver Pay');</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객별 주문 이력 관리</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT oo.customer_id,
+c.`name`,
+oo.order_id,
+oo.total_price,
+oo.use_point,
+oo.created_at,
+oo.`status`,
+op.total_amount,
+op.method,
+ood.order_detail_id,
+ood.product_name,
+ood.quantity,
+ood.price,
+op.`status`,
+op.method
+FROM customer c
+INNER JOIN online_order oo
+FORCE INDEX (idx_online_order_customer_covering) ON c.customer_id = oo.customer_id
+INNER JOIN online_order_detail ood ON oo.order_id = ood.order_id
+INNER JOIN online_payment op ON oo.order_id = op.order_id
+ORDER BY oo.customer_id, oo.created_at;</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>월별 판매량 TOP3 상품 조회</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>WITH ranked_sales AS ( SELECT *, ROW_NUMBER() OVER (PARTITION BY `year_month` ORDER BY sales_volume DESC) AS rn FROM monthly_product_sales ) SELECT `year_month` AS 연월, product_name AS 상품명, sales_volume AS 판매량 FROM ranked_sales WHERE rn &lt; 4 ORDER BY `year_month` DESC;</t>
   </si>
 </sst>
 </file>
@@ -2627,15 +2035,6 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="5" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" xfId="11" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="16" borderId="0" xfId="12" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2656,6 +2055,15 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" xfId="11" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -3010,10 +2418,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="28"/>
+      <c r="G1" s="35"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F2" s="5" t="s">
@@ -3040,13 +2448,13 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
       <c r="F5" s="9" t="s">
         <v>15</v>
       </c>
@@ -4485,7 +3893,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="36" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -4517,7 +3925,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A4" s="29"/>
+      <c r="A4" s="36"/>
       <c r="B4" s="2" t="s">
         <v>88</v>
       </c>
@@ -4998,8 +4406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{444E93D6-ED11-4590-A7D7-036BA4610650}">
   <dimension ref="A2:K14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5028,7 +4436,7 @@
         <v>222</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>158</v>
@@ -5052,82 +4460,61 @@
         <v>223</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="99" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>271</v>
+        <v>302</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="F3" s="24">
-        <f ca="1">NOW()</f>
-        <v>45735.84376689815</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>275</v>
-      </c>
+      <c r="F3" s="24"/>
+      <c r="G3" s="2"/>
       <c r="H3" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="I3" s="2">
-        <v>0</v>
-      </c>
-      <c r="J3" s="2">
-        <v>0</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A4" s="23" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>274</v>
+        <v>299</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>272</v>
+        <v>303</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="F4" s="24">
-        <v>45727.854421296295</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>231</v>
-      </c>
+      <c r="F4" s="24"/>
+      <c r="G4" s="2"/>
       <c r="H4" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A5" s="23" t="s">
         <v>25</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>276</v>
+        <v>300</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>277</v>
+        <v>304</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
@@ -5142,14 +4529,16 @@
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A6" s="23" t="s">
         <v>26</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="C6" s="2"/>
+        <v>301</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>305</v>
+      </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
         <v>269</v>
@@ -5161,14 +4550,16 @@
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A7" s="23" t="s">
         <v>27</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="C7" s="2"/>
+        <v>306</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>307</v>
+      </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2" t="s">
         <v>269</v>
@@ -5180,12 +4571,16 @@
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A8" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>309</v>
+      </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
         <v>269</v>
@@ -5246,8 +4641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D3FAC4F-684A-4B7A-9E27-4BBE7A5494B1}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5262,248 +4657,178 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="27" t="s">
+        <v>272</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>273</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>274</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>276</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>277</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="B2" s="29" t="s">
+        <v>279</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="D2" s="30" t="s">
         <v>282</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="E2" s="32" t="s">
         <v>283</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="F2" s="31">
+        <v>45730</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="B3" s="29" t="s">
+        <v>279</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="D3" s="30" t="s">
         <v>285</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="E3" s="33" t="s">
         <v>286</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="F3" s="31">
+        <v>45731</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="B4" s="29" t="s">
+        <v>279</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="409.5" x14ac:dyDescent="0.3">
-      <c r="B2" s="32" t="s">
+      <c r="D4" s="30" t="s">
         <v>288</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E4" s="33" t="s">
         <v>289</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="F4" s="31">
+        <v>45731</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="B5" s="29" t="s">
+        <v>279</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D5" s="30" t="s">
         <v>291</v>
       </c>
-      <c r="E2" s="35" t="s">
+      <c r="E5" s="33" t="s">
+        <v>292</v>
+      </c>
+      <c r="F5" s="31">
+        <v>45733</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="B6" s="29" t="s">
+        <v>279</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="F2" s="34">
-        <v>45730</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="409.5" x14ac:dyDescent="0.3">
-      <c r="B3" s="32" t="s">
-        <v>288</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="D3" s="33" t="s">
-        <v>292</v>
-      </c>
-      <c r="E3" s="36" t="s">
+      <c r="D6" s="30" t="s">
+        <v>280</v>
+      </c>
+      <c r="E6" s="33" t="s">
         <v>294</v>
       </c>
-      <c r="F3" s="34">
-        <v>45731</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="409.5" x14ac:dyDescent="0.3">
-      <c r="B4" s="32" t="s">
-        <v>288</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="F6" s="31">
+        <v>45733</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="B7" s="29" t="s">
+        <v>279</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D7" s="30" t="s">
         <v>296</v>
       </c>
-      <c r="D4" s="33" t="s">
+      <c r="E7" s="33" t="s">
         <v>297</v>
       </c>
-      <c r="E4" s="36" t="s">
-        <v>295</v>
-      </c>
-      <c r="F4" s="34">
-        <v>45731</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="409.5" x14ac:dyDescent="0.3">
-      <c r="B5" s="32" t="s">
-        <v>288</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="D5" s="33" t="s">
-        <v>299</v>
-      </c>
-      <c r="E5" s="36" t="s">
-        <v>300</v>
-      </c>
-      <c r="F5" s="34">
+      <c r="F7" s="31">
         <v>45733</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="409.5" x14ac:dyDescent="0.3">
-      <c r="B6" s="32" t="s">
-        <v>288</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="D6" s="33" t="s">
-        <v>302</v>
-      </c>
-      <c r="E6" s="36" t="s">
-        <v>303</v>
-      </c>
-      <c r="F6" s="34">
-        <v>45733</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="409.5" x14ac:dyDescent="0.3">
-      <c r="B7" s="32" t="s">
-        <v>288</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="D7" s="33" t="s">
-        <v>305</v>
-      </c>
-      <c r="E7" s="36" t="s">
-        <v>306</v>
-      </c>
-      <c r="F7" s="34">
-        <v>45733</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="409.5" x14ac:dyDescent="0.3">
-      <c r="B8" s="32" t="s">
-        <v>288</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="D8" s="33" t="s">
-        <v>309</v>
-      </c>
-      <c r="E8" s="36" t="s">
-        <v>312</v>
-      </c>
-      <c r="F8" s="34">
-        <v>45734</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="409.5" x14ac:dyDescent="0.3">
-      <c r="B9" s="32" t="s">
-        <v>288</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="D9" s="33" t="s">
-        <v>310</v>
-      </c>
-      <c r="E9" s="36" t="s">
-        <v>313</v>
-      </c>
-      <c r="F9" s="34">
-        <v>45734</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="409.5" x14ac:dyDescent="0.3">
-      <c r="B10" s="32" t="s">
-        <v>288</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="D10" s="33" t="s">
-        <v>311</v>
-      </c>
-      <c r="E10" s="36" t="s">
-        <v>314</v>
-      </c>
-      <c r="F10" s="34">
-        <v>45734</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="409.5" x14ac:dyDescent="0.3">
-      <c r="B11" s="32" t="s">
-        <v>288</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="D11" s="33" t="s">
-        <v>318</v>
-      </c>
-      <c r="E11" s="36" t="s">
-        <v>320</v>
-      </c>
-      <c r="F11" s="34">
-        <v>45734</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="409.5" x14ac:dyDescent="0.3">
-      <c r="B12" s="32" t="s">
-        <v>288</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="D12" s="33" t="s">
-        <v>319</v>
-      </c>
-      <c r="E12" s="36" t="s">
-        <v>321</v>
-      </c>
-      <c r="F12" s="34">
-        <v>45734</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="409.5" x14ac:dyDescent="0.3">
-      <c r="B13" s="32" t="s">
-        <v>288</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="D13" s="33" t="s">
-        <v>326</v>
-      </c>
-      <c r="E13" s="36" t="s">
-        <v>324</v>
-      </c>
-      <c r="F13" s="34">
-        <v>45735</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="409.5" x14ac:dyDescent="0.3">
-      <c r="B14" s="32" t="s">
-        <v>288</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="D14" s="33" t="s">
-        <v>327</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>325</v>
-      </c>
-      <c r="F14" s="34">
-        <v>45735</v>
-      </c>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B8" s="29"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="31"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B9" s="29"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="31"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B10" s="29"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="31"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B11" s="29"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="31"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B12" s="29"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="31"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B13" s="29"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="31"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B14" s="29"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="31"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
